--- a/data/nzd0540/nzd0540.xlsx
+++ b/data/nzd0540/nzd0540.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O478"/>
+  <dimension ref="A1:O482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22132,6 +22132,178 @@
         </is>
       </c>
     </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr"/>
+      <c r="C479" t="n">
+        <v>294.02</v>
+      </c>
+      <c r="D479" t="n">
+        <v>301.21</v>
+      </c>
+      <c r="E479" t="n">
+        <v>302.7866666666667</v>
+      </c>
+      <c r="F479" t="n">
+        <v>307.6266666666667</v>
+      </c>
+      <c r="G479" t="n">
+        <v>314.45</v>
+      </c>
+      <c r="H479" t="n">
+        <v>295.9085714285715</v>
+      </c>
+      <c r="I479" t="n">
+        <v>301.6666666666667</v>
+      </c>
+      <c r="J479" t="n">
+        <v>308.6042857142857</v>
+      </c>
+      <c r="K479" t="n">
+        <v>314.98</v>
+      </c>
+      <c r="L479" t="n">
+        <v>310.8085714285714</v>
+      </c>
+      <c r="M479" t="n">
+        <v>301.4076923076923</v>
+      </c>
+      <c r="N479" t="n">
+        <v>309.61</v>
+      </c>
+      <c r="O479" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:57+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>314.11</v>
+      </c>
+      <c r="C480" t="n">
+        <v>310.04</v>
+      </c>
+      <c r="D480" t="n">
+        <v>312.17</v>
+      </c>
+      <c r="E480" t="n">
+        <v>310.3411111111111</v>
+      </c>
+      <c r="F480" t="n">
+        <v>321.4511111111111</v>
+      </c>
+      <c r="G480" t="n">
+        <v>321.33</v>
+      </c>
+      <c r="H480" t="n">
+        <v>315.52</v>
+      </c>
+      <c r="I480" t="n">
+        <v>311.4611111111111</v>
+      </c>
+      <c r="J480" t="n">
+        <v>308.66</v>
+      </c>
+      <c r="K480" t="n">
+        <v>307.65</v>
+      </c>
+      <c r="L480" t="n">
+        <v>312</v>
+      </c>
+      <c r="M480" t="n">
+        <v>309.7176923076923</v>
+      </c>
+      <c r="N480" t="n">
+        <v>312.6066666666667</v>
+      </c>
+      <c r="O480" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:15:06+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>298.6</v>
+      </c>
+      <c r="C481" t="n">
+        <v>301.7</v>
+      </c>
+      <c r="D481" t="n">
+        <v>304.91</v>
+      </c>
+      <c r="E481" t="n">
+        <v>305.7433333333333</v>
+      </c>
+      <c r="F481" t="n">
+        <v>311.7033333333333</v>
+      </c>
+      <c r="G481" t="n">
+        <v>318.69</v>
+      </c>
+      <c r="H481" t="n">
+        <v>313.3457142857143</v>
+      </c>
+      <c r="I481" t="n">
+        <v>305.8733333333333</v>
+      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
+      <c r="L481" t="inlineStr"/>
+      <c r="M481" t="inlineStr"/>
+      <c r="N481" t="inlineStr"/>
+      <c r="O481" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:15:04+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr"/>
+      <c r="C482" t="inlineStr"/>
+      <c r="D482" t="inlineStr"/>
+      <c r="E482" t="n">
+        <v>274.6366666666667</v>
+      </c>
+      <c r="F482" t="n">
+        <v>299.9766666666667</v>
+      </c>
+      <c r="G482" t="n">
+        <v>292.42</v>
+      </c>
+      <c r="H482" t="inlineStr"/>
+      <c r="I482" t="inlineStr"/>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
+      <c r="L482" t="inlineStr"/>
+      <c r="M482" t="inlineStr"/>
+      <c r="N482" t="inlineStr"/>
+      <c r="O482" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22143,7 +22315,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B487"/>
+  <dimension ref="A1:B491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27021,6 +27193,46 @@
       </c>
       <c r="B487" t="n">
         <v>0.61</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>-0.78</v>
       </c>
     </row>
   </sheetData>
@@ -27189,28 +27401,28 @@
         <v>0.0329</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1053389285692656</v>
+        <v>0.1313674481787118</v>
       </c>
       <c r="J2" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K2" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003428497592011803</v>
+        <v>0.0005383937596455945</v>
       </c>
       <c r="M2" t="n">
-        <v>29.91480696279696</v>
+        <v>29.8336255920539</v>
       </c>
       <c r="N2" t="n">
-        <v>1701.707585599258</v>
+        <v>1693.946044249185</v>
       </c>
       <c r="O2" t="n">
-        <v>41.25175857583842</v>
+        <v>41.15757578197707</v>
       </c>
       <c r="P2" t="n">
-        <v>282.101301666821</v>
+        <v>281.8395535013699</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -27266,28 +27478,28 @@
         <v>0.0308</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07585767817560492</v>
+        <v>-0.06080744079330575</v>
       </c>
       <c r="J3" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K3" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0006109484534199128</v>
+        <v>0.0003978670569262377</v>
       </c>
       <c r="M3" t="n">
-        <v>16.7671780107566</v>
+        <v>16.70050150043246</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3003632876702</v>
+        <v>475.481053826536</v>
       </c>
       <c r="O3" t="n">
-        <v>21.87007917881575</v>
+        <v>21.80552805658547</v>
       </c>
       <c r="P3" t="n">
-        <v>294.2000641419386</v>
+        <v>294.0466112539904</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -27343,28 +27555,28 @@
         <v>0.0501</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.188376816906629</v>
+        <v>-0.1753683547033653</v>
       </c>
       <c r="J4" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K4" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006709085780378099</v>
+        <v>0.005888485225794882</v>
       </c>
       <c r="M4" t="n">
-        <v>12.95396167320742</v>
+        <v>12.91480880368598</v>
       </c>
       <c r="N4" t="n">
-        <v>266.4786415814522</v>
+        <v>265.1230620791465</v>
       </c>
       <c r="O4" t="n">
-        <v>16.32417353440756</v>
+        <v>16.2825999790926</v>
       </c>
       <c r="P4" t="n">
-        <v>302.141901769038</v>
+        <v>302.0085061379203</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -27420,28 +27632,28 @@
         <v>0.0504</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1563880890244576</v>
+        <v>-0.1569372502367255</v>
       </c>
       <c r="J5" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K5" t="n">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00559979879455097</v>
+        <v>0.005697692891781792</v>
       </c>
       <c r="M5" t="n">
-        <v>11.94502814111927</v>
+        <v>11.94311126890167</v>
       </c>
       <c r="N5" t="n">
-        <v>224.8259977019063</v>
+        <v>224.5135303792767</v>
       </c>
       <c r="O5" t="n">
-        <v>14.99419880160012</v>
+        <v>14.9837755715733</v>
       </c>
       <c r="P5" t="n">
-        <v>302.5440643188984</v>
+        <v>302.5502108352698</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -27497,28 +27709,28 @@
         <v>0.0546</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0624880402335276</v>
+        <v>-0.0462059255079535</v>
       </c>
       <c r="J6" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K6" t="n">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0008588103757607435</v>
+        <v>0.0004762828536094554</v>
       </c>
       <c r="M6" t="n">
-        <v>11.79912395535327</v>
+        <v>11.76956943299522</v>
       </c>
       <c r="N6" t="n">
-        <v>235.030265265833</v>
+        <v>233.8920516193717</v>
       </c>
       <c r="O6" t="n">
-        <v>15.33069682910183</v>
+        <v>15.29352973055507</v>
       </c>
       <c r="P6" t="n">
-        <v>303.4607885729775</v>
+        <v>303.29623197442</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -27574,28 +27786,28 @@
         <v>0.047</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1779541511197154</v>
+        <v>0.189133904377416</v>
       </c>
       <c r="J7" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K7" t="n">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007247474152921596</v>
+        <v>0.008281001463121718</v>
       </c>
       <c r="M7" t="n">
-        <v>11.87370639531879</v>
+        <v>11.88034879848094</v>
       </c>
       <c r="N7" t="n">
-        <v>229.3263035872822</v>
+        <v>228.6291198853038</v>
       </c>
       <c r="O7" t="n">
-        <v>15.14352348653649</v>
+        <v>15.12048676085872</v>
       </c>
       <c r="P7" t="n">
-        <v>301.4740472809178</v>
+        <v>301.3639737438629</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -27651,28 +27863,28 @@
         <v>0.0425</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2560797699442248</v>
+        <v>0.2762917433214408</v>
       </c>
       <c r="J8" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K8" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01325809033411285</v>
+        <v>0.01550829784000696</v>
       </c>
       <c r="M8" t="n">
-        <v>12.79209741748053</v>
+        <v>12.79516518966471</v>
       </c>
       <c r="N8" t="n">
-        <v>259.3106112767256</v>
+        <v>259.3161870191261</v>
       </c>
       <c r="O8" t="n">
-        <v>16.10312427067262</v>
+        <v>16.10329739584803</v>
       </c>
       <c r="P8" t="n">
-        <v>288.1173418021036</v>
+        <v>287.9185158545749</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -27728,28 +27940,28 @@
         <v>0.0542</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3838344736698</v>
+        <v>0.3977414085389819</v>
       </c>
       <c r="J9" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K9" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L9" t="n">
-        <v>0.040510743211148</v>
+        <v>0.04379770885128109</v>
       </c>
       <c r="M9" t="n">
-        <v>10.15937375361375</v>
+        <v>10.15389415220611</v>
       </c>
       <c r="N9" t="n">
-        <v>179.7587860615401</v>
+        <v>179.1607282629022</v>
       </c>
       <c r="O9" t="n">
-        <v>13.40741533859305</v>
+        <v>13.38509350968092</v>
       </c>
       <c r="P9" t="n">
-        <v>287.2415163262504</v>
+        <v>287.1012312545391</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -27805,28 +28017,28 @@
         <v>0.0858</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2693516667273245</v>
+        <v>0.2787572917968287</v>
       </c>
       <c r="J10" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K10" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02759723205289366</v>
+        <v>0.02967835100302973</v>
       </c>
       <c r="M10" t="n">
-        <v>8.965426764378989</v>
+        <v>8.966419146878994</v>
       </c>
       <c r="N10" t="n">
-        <v>135.9241519000509</v>
+        <v>135.7055278447741</v>
       </c>
       <c r="O10" t="n">
-        <v>11.6586513756974</v>
+        <v>11.64927155854709</v>
       </c>
       <c r="P10" t="n">
-        <v>292.1084495915937</v>
+        <v>292.0159698345216</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -27882,28 +28094,28 @@
         <v>0.063</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3771478756633896</v>
+        <v>0.3804209500244518</v>
       </c>
       <c r="J11" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K11" t="n">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05576017864143967</v>
+        <v>0.05715399840731283</v>
       </c>
       <c r="M11" t="n">
-        <v>8.674689222198468</v>
+        <v>8.646200945343956</v>
       </c>
       <c r="N11" t="n">
-        <v>126.4762455439698</v>
+        <v>125.9586863329265</v>
       </c>
       <c r="O11" t="n">
-        <v>11.24616581524431</v>
+        <v>11.22313175245334</v>
       </c>
       <c r="P11" t="n">
-        <v>298.4397730451371</v>
+        <v>298.4075423137799</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -27959,28 +28171,28 @@
         <v>0.038</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5132710392613231</v>
+        <v>0.5159050351862524</v>
       </c>
       <c r="J12" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K12" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0871342611504361</v>
+        <v>0.08873092662880899</v>
       </c>
       <c r="M12" t="n">
-        <v>9.563957559824111</v>
+        <v>9.526694690416246</v>
       </c>
       <c r="N12" t="n">
-        <v>145.2680514949867</v>
+        <v>144.5557365105159</v>
       </c>
       <c r="O12" t="n">
-        <v>12.05271967213154</v>
+        <v>12.02313338986622</v>
       </c>
       <c r="P12" t="n">
-        <v>295.7975498538588</v>
+        <v>295.771538021982</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -28030,28 +28242,28 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>0.455933234013305</v>
+        <v>0.4574295253424305</v>
       </c>
       <c r="J13" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K13" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07186324360149099</v>
+        <v>0.07295696021546616</v>
       </c>
       <c r="M13" t="n">
-        <v>9.142860478922644</v>
+        <v>9.116091821624382</v>
       </c>
       <c r="N13" t="n">
-        <v>138.479999871299</v>
+        <v>137.8638008193221</v>
       </c>
       <c r="O13" t="n">
-        <v>11.76775254121614</v>
+        <v>11.74154167131907</v>
       </c>
       <c r="P13" t="n">
-        <v>292.6233255741098</v>
+        <v>292.6084484148564</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -28107,28 +28319,28 @@
         <v>0.0349</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3560692984410708</v>
+        <v>0.3584371201650586</v>
       </c>
       <c r="J14" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K14" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03546870935617186</v>
+        <v>0.03629384358488452</v>
       </c>
       <c r="M14" t="n">
-        <v>10.40253343627371</v>
+        <v>10.3569265337391</v>
       </c>
       <c r="N14" t="n">
-        <v>181.3573790239847</v>
+        <v>180.3975008577113</v>
       </c>
       <c r="O14" t="n">
-        <v>13.46689938419326</v>
+        <v>13.43121367776238</v>
       </c>
       <c r="P14" t="n">
-        <v>299.9058038000315</v>
+        <v>299.8825159761081</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -28165,7 +28377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O478"/>
+  <dimension ref="A1:O482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59563,6 +59775,250 @@
         </is>
       </c>
     </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr"/>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>-46.46760243456534,169.75796150121897</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>-46.46809672262633,169.75733408435445</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>-46.46861279153665,169.7567551144588</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>-46.46916111171107,169.7562767131915</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>-46.46974687559427,169.75586079903405</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>-46.47030520902892,169.7553112931842</t>
+        </is>
+      </c>
+      <c r="I479" t="inlineStr">
+        <is>
+          <t>-46.470928398818955,169.75515774288652</t>
+        </is>
+      </c>
+      <c r="J479" t="inlineStr">
+        <is>
+          <t>-46.471525337963925,169.7549829169935</t>
+        </is>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>-46.472141152759825,169.7547570948603</t>
+        </is>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>-46.472778092787905,169.75455778054155</t>
+        </is>
+      </c>
+      <c r="M479" t="inlineStr">
+        <is>
+          <t>-46.47340334609237,169.754410538287</t>
+        </is>
+      </c>
+      <c r="N479" t="inlineStr">
+        <is>
+          <t>-46.474021950390586,169.75447053313098</t>
+        </is>
+      </c>
+      <c r="O479" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:57+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>-46.46733906092161,169.7588237339089</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>-46.46771278975543,169.75809552728896</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>-46.46816574406608,169.757435910522</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>-46.46865505465662,169.75683209292012</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>-46.46923208769779,169.75642443464506</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>-46.469775239927266,169.75594037937302</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>-46.47036162159416,169.75555313278463</t>
+        </is>
+      </c>
+      <c r="I480" t="inlineStr">
+        <is>
+          <t>-46.47095468326417,169.75527941404857</t>
+        </is>
+      </c>
+      <c r="J480" t="inlineStr">
+        <is>
+          <t>-46.4715255088504,169.75498359866847</t>
+        </is>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>-46.47212323843904,169.75466527994297</t>
+        </is>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>-46.47277936665512,169.75457317812516</t>
+        </is>
+      </c>
+      <c r="M480" t="inlineStr">
+        <is>
+          <t>-46.47340839859934,169.75451845461936</t>
+        </is>
+      </c>
+      <c r="N480" t="inlineStr">
+        <is>
+          <t>-46.474024108312115,169.75450941324405</t>
+        </is>
+      </c>
+      <c r="O480" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:15:06+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>-46.46722981921689,169.75869823008492</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>-46.46765533894426,169.75802575335004</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>-46.468120023669314,169.75736845994788</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>-46.46862933252826,169.7567852423582</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>-46.46918204171675,169.7563202744766</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>-46.469764355945344,169.75590984272128</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>-46.47035536725367,169.7555263204138</t>
+        </is>
+      </c>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>-46.470939687876964,169.75521000004886</t>
+        </is>
+      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
+      <c r="L481" t="inlineStr"/>
+      <c r="M481" t="inlineStr"/>
+      <c r="N481" t="inlineStr"/>
+      <c r="O481" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:15:04+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr"/>
+      <c r="C482" t="inlineStr"/>
+      <c r="D482" t="inlineStr"/>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>-46.46845530674711,169.75646827196553</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>-46.469121835819614,169.75619496908908</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>-46.46965605165093,169.75560598058436</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr"/>
+      <c r="I482" t="inlineStr"/>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
+      <c r="L482" t="inlineStr"/>
+      <c r="M482" t="inlineStr"/>
+      <c r="N482" t="inlineStr"/>
+      <c r="O482" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0540/nzd0540.xlsx
+++ b/data/nzd0540/nzd0540.xlsx
@@ -27246,7 +27246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27337,35 +27337,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -27424,27 +27429,28 @@
       <c r="P2" t="n">
         <v>281.8395535013699</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (169.75628211567835 -46.465126662774665, 169.76336595695014 -46.47129234941701)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>169.7562821156783</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-46.46512666277467</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>169.7633659569501</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-46.47129234941701</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>169.7598240363142</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-46.46820950609584</v>
       </c>
     </row>
@@ -27501,27 +27507,28 @@
       <c r="P3" t="n">
         <v>294.0466112539904</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (169.75550177514754 -46.46557702594765, 169.76282599421606 -46.47160741276616)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>169.7555017751475</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-46.46557702594765</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>169.7628259942161</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-46.47160741276616</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>169.7591638846818</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-46.46859221935691</v>
       </c>
     </row>
@@ -27578,27 +27585,28 @@
       <c r="P4" t="n">
         <v>302.0085061379203</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (169.75453573095433 -46.46619979634952, 169.76267008092108 -46.47171330322437)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>169.7545357309543</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-46.46619979634952</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>169.7626700809211</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-46.47171330322437</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>169.7586029059377</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-46.46895654978695</v>
       </c>
     </row>
@@ -27655,27 +27663,28 @@
       <c r="P5" t="n">
         <v>302.5502108352698</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (169.75366987062702 -46.46691881991097, 169.76259229973607 -46.47181722695823)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>169.753669870627</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-46.46691881991097</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>169.7625922997361</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-46.47181722695823</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>169.7581310851816</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-46.4693680234346</v>
       </c>
     </row>
@@ -27732,27 +27741,28 @@
       <c r="P6" t="n">
         <v>303.29623197442</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (169.75298966147463 -46.467581680647974, 169.76234664553434 -46.47207723860919)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>169.7529896614746</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-46.46758168064797</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>169.7623466455343</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-46.47207723860919</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>169.7576681535045</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-46.46982945962858</v>
       </c>
     </row>
@@ -27809,27 +27819,28 @@
       <c r="P7" t="n">
         <v>301.3639737438629</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (169.75222367498 -46.468450428355645, 169.76235354055152 -46.47206076840851)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>169.75222367498</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-46.46845042835564</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>169.7623535405515</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-46.47206076840851</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>169.7572886077658</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-46.47025559838208</v>
       </c>
     </row>
@@ -27886,27 +27897,28 @@
       <c r="P8" t="n">
         <v>287.9185158545749</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (169.7516623411947 -46.46945396297375, 169.76246292264312 -46.47197316661541)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>169.7516623411947</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-46.46945396297375</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>169.7624629226431</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-46.47197316661541</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>169.7570626319189</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-46.47071356479458</v>
       </c>
     </row>
@@ -27963,27 +27975,28 @@
       <c r="P9" t="n">
         <v>287.1012312545391</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (169.75141035923258 -46.47011878181302, 169.76229064813234 -46.47246905088095)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>169.7514103592326</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-46.47011878181302</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>169.7622906481323</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-46.47246905088095</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>169.7568505036825</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-46.47129391634699</v>
       </c>
     </row>
@@ -28040,27 +28053,28 @@
       <c r="P10" t="n">
         <v>292.0159698345216</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (169.75120715289722 -46.47057872821095, 169.76192311308023 -46.47326488562763)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>169.7512071528972</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-46.47057872821095</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>169.7619231130802</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-46.47326488562763</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>169.7565651329887</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-46.47192180691929</v>
       </c>
     </row>
@@ -28117,27 +28131,28 @@
       <c r="P11" t="n">
         <v>298.4075423137799</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (169.75081174156398 -46.471371284987555, 169.76178270020566 -46.4735116910069)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>169.750811741564</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-46.47137128498755</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>169.7617827002057</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-46.4735116910069</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>169.7562972208848</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-46.47244148799723</v>
       </c>
     </row>
@@ -28194,27 +28209,28 @@
       <c r="P12" t="n">
         <v>295.771538021982</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (169.75054103349697 -46.47244570812186, 169.76186086345652 -46.473382050071336)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>169.750541033497</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-46.47244570812186</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>169.7618608634565</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-46.47338205007134</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>169.7562009484768</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-46.47291387909659</v>
       </c>
     </row>
@@ -28265,27 +28281,28 @@
       <c r="P13" t="n">
         <v>292.6084484148564</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (169.7504963782762 -46.47322002065498, 169.76187114881608 -46.473752400719825)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>169.7504963782762</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-46.47322002065498</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>169.7618711488161</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-46.47375240071982</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>169.7561837635461</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-46.4734862106874</v>
       </c>
     </row>
@@ -28342,27 +28359,28 @@
       <c r="P14" t="n">
         <v>299.8825159761081</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (169.7504535329046 -46.47379892706027, 169.76181785488725 -46.47442950353186)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>169.7504535329046</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-46.47379892706027</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>169.7618178548873</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-46.47442950353186</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>169.7561356938959</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-46.47411421529607</v>
       </c>
     </row>

--- a/data/nzd0540/nzd0540.xlsx
+++ b/data/nzd0540/nzd0540.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O482"/>
+  <dimension ref="A1:O487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22304,6 +22304,261 @@
         </is>
       </c>
     </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:38+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>312.68</v>
+      </c>
+      <c r="C483" t="n">
+        <v>318.93</v>
+      </c>
+      <c r="D483" t="n">
+        <v>319.79</v>
+      </c>
+      <c r="E483" t="n">
+        <v>318.4366666666667</v>
+      </c>
+      <c r="F483" t="n">
+        <v>320.7566666666667</v>
+      </c>
+      <c r="G483" t="n">
+        <v>329.38</v>
+      </c>
+      <c r="H483" t="n">
+        <v>317.7828571428572</v>
+      </c>
+      <c r="I483" t="n">
+        <v>311.4766666666667</v>
+      </c>
+      <c r="J483" t="n">
+        <v>307.0714285714286</v>
+      </c>
+      <c r="K483" t="n">
+        <v>315.73</v>
+      </c>
+      <c r="L483" t="n">
+        <v>316.3228571428572</v>
+      </c>
+      <c r="M483" t="n">
+        <v>312.24</v>
+      </c>
+      <c r="N483" t="n">
+        <v>315.92</v>
+      </c>
+      <c r="O483" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>311.35</v>
+      </c>
+      <c r="C484" t="n">
+        <v>318.65</v>
+      </c>
+      <c r="D484" t="n">
+        <v>321.47</v>
+      </c>
+      <c r="E484" t="n">
+        <v>323.8155555555555</v>
+      </c>
+      <c r="F484" t="n">
+        <v>325.4755555555556</v>
+      </c>
+      <c r="G484" t="n">
+        <v>329.76</v>
+      </c>
+      <c r="H484" t="n">
+        <v>319.8757142857143</v>
+      </c>
+      <c r="I484" t="n">
+        <v>318.7755555555556</v>
+      </c>
+      <c r="J484" t="n">
+        <v>312.4528571428572</v>
+      </c>
+      <c r="K484" t="n">
+        <v>323.98</v>
+      </c>
+      <c r="L484" t="n">
+        <v>322.1657142857143</v>
+      </c>
+      <c r="M484" t="n">
+        <v>320.2807692307692</v>
+      </c>
+      <c r="N484" t="n">
+        <v>322.0133333333333</v>
+      </c>
+      <c r="O484" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>294.58</v>
+      </c>
+      <c r="C485" t="n">
+        <v>298.67</v>
+      </c>
+      <c r="D485" t="n">
+        <v>300.78</v>
+      </c>
+      <c r="E485" t="n">
+        <v>302.6333333333333</v>
+      </c>
+      <c r="F485" t="n">
+        <v>302.3333333333333</v>
+      </c>
+      <c r="G485" t="n">
+        <v>304.57</v>
+      </c>
+      <c r="H485" t="n">
+        <v>296.0557142857143</v>
+      </c>
+      <c r="I485" t="n">
+        <v>293.9533333333333</v>
+      </c>
+      <c r="J485" t="n">
+        <v>296.2428571428572</v>
+      </c>
+      <c r="K485" t="n">
+        <v>302.29</v>
+      </c>
+      <c r="L485" t="n">
+        <v>306.2957142857143</v>
+      </c>
+      <c r="M485" t="n">
+        <v>296.6553846153847</v>
+      </c>
+      <c r="N485" t="n">
+        <v>295.34</v>
+      </c>
+      <c r="O485" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>304.46</v>
+      </c>
+      <c r="C486" t="n">
+        <v>321.37</v>
+      </c>
+      <c r="D486" t="n">
+        <v>320.73</v>
+      </c>
+      <c r="E486" t="n">
+        <v>316.8155555555555</v>
+      </c>
+      <c r="F486" t="n">
+        <v>321.0055555555556</v>
+      </c>
+      <c r="G486" t="n">
+        <v>320.34</v>
+      </c>
+      <c r="H486" t="n">
+        <v>312.8357142857143</v>
+      </c>
+      <c r="I486" t="n">
+        <v>308.4755555555556</v>
+      </c>
+      <c r="J486" t="n">
+        <v>310.3328571428572</v>
+      </c>
+      <c r="K486" t="n">
+        <v>318.67</v>
+      </c>
+      <c r="L486" t="n">
+        <v>310.0957142857143</v>
+      </c>
+      <c r="M486" t="n">
+        <v>303.2961538461539</v>
+      </c>
+      <c r="N486" t="n">
+        <v>312.8133333333333</v>
+      </c>
+      <c r="O486" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>315.77</v>
+      </c>
+      <c r="C487" t="n">
+        <v>324.96</v>
+      </c>
+      <c r="D487" t="n">
+        <v>322.22</v>
+      </c>
+      <c r="E487" t="n">
+        <v>319.1022222222222</v>
+      </c>
+      <c r="F487" t="n">
+        <v>315.7122222222222</v>
+      </c>
+      <c r="G487" t="n">
+        <v>326.22</v>
+      </c>
+      <c r="H487" t="n">
+        <v>315.4742857142857</v>
+      </c>
+      <c r="I487" t="n">
+        <v>311.1722222222222</v>
+      </c>
+      <c r="J487" t="n">
+        <v>309.9171428571428</v>
+      </c>
+      <c r="K487" t="n">
+        <v>317.12</v>
+      </c>
+      <c r="L487" t="n">
+        <v>323.2442857142857</v>
+      </c>
+      <c r="M487" t="n">
+        <v>322.4930769230769</v>
+      </c>
+      <c r="N487" t="n">
+        <v>323.4533333333333</v>
+      </c>
+      <c r="O487" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22315,7 +22570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B491"/>
+  <dimension ref="A1:B496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27233,6 +27488,56 @@
       </c>
       <c r="B491" t="n">
         <v>-0.78</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>0.55</v>
       </c>
     </row>
   </sheetData>
@@ -27406,28 +27711,28 @@
         <v>0.0329</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1313674481787118</v>
+        <v>0.1980839924714213</v>
       </c>
       <c r="J2" t="n">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="K2" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005383937596455945</v>
+        <v>0.001253790008356459</v>
       </c>
       <c r="M2" t="n">
-        <v>29.8336255920539</v>
+        <v>29.64280370023175</v>
       </c>
       <c r="N2" t="n">
-        <v>1693.946044249185</v>
+        <v>1675.39987087886</v>
       </c>
       <c r="O2" t="n">
-        <v>41.15757578197707</v>
+        <v>40.93164876814591</v>
       </c>
       <c r="P2" t="n">
-        <v>281.8395535013699</v>
+        <v>281.1591221293028</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27484,28 +27789,28 @@
         <v>0.0308</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06080744079330575</v>
+        <v>0.0009621898626784854</v>
       </c>
       <c r="J3" t="n">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="K3" t="n">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003978670569262377</v>
+        <v>1.004619870625945e-07</v>
       </c>
       <c r="M3" t="n">
-        <v>16.70050150043246</v>
+        <v>16.75420587812034</v>
       </c>
       <c r="N3" t="n">
-        <v>475.481053826536</v>
+        <v>477.6812773341991</v>
       </c>
       <c r="O3" t="n">
-        <v>21.80552805658547</v>
+        <v>21.85592087591368</v>
       </c>
       <c r="P3" t="n">
-        <v>294.0466112539904</v>
+        <v>293.4081714112866</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27562,28 +27867,28 @@
         <v>0.0501</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1753683547033653</v>
+        <v>-0.127374641225373</v>
       </c>
       <c r="J4" t="n">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="K4" t="n">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005888485225794882</v>
+        <v>0.003126519085439483</v>
       </c>
       <c r="M4" t="n">
-        <v>12.91480880368598</v>
+        <v>12.97222048671385</v>
       </c>
       <c r="N4" t="n">
-        <v>265.1230620791465</v>
+        <v>267.2761864360552</v>
       </c>
       <c r="O4" t="n">
-        <v>16.2825999790926</v>
+        <v>16.34858362171033</v>
       </c>
       <c r="P4" t="n">
-        <v>302.0085061379203</v>
+        <v>301.5094166180455</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27640,28 +27945,28 @@
         <v>0.0504</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1569372502367255</v>
+        <v>-0.1143130238065089</v>
       </c>
       <c r="J5" t="n">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="K5" t="n">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005697692891781792</v>
+        <v>0.003044429486827482</v>
       </c>
       <c r="M5" t="n">
-        <v>11.94311126890167</v>
+        <v>12.00277363140087</v>
       </c>
       <c r="N5" t="n">
-        <v>224.5135303792767</v>
+        <v>226.1320270816576</v>
       </c>
       <c r="O5" t="n">
-        <v>14.9837755715733</v>
+        <v>15.03768689265931</v>
       </c>
       <c r="P5" t="n">
-        <v>302.5502108352698</v>
+        <v>302.1139107714965</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27718,28 +28023,28 @@
         <v>0.0546</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0462059255079535</v>
+        <v>-0.009971945660507164</v>
       </c>
       <c r="J6" t="n">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="K6" t="n">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004762828536094554</v>
+        <v>2.239461674802268e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>11.76956943299522</v>
+        <v>11.80253619566277</v>
       </c>
       <c r="N6" t="n">
-        <v>233.8920516193717</v>
+        <v>234.4731125193423</v>
       </c>
       <c r="O6" t="n">
-        <v>15.29352973055507</v>
+        <v>15.31251489858352</v>
       </c>
       <c r="P6" t="n">
-        <v>303.29623197442</v>
+        <v>302.9247817307956</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27796,28 +28101,28 @@
         <v>0.047</v>
       </c>
       <c r="I7" t="n">
-        <v>0.189133904377416</v>
+        <v>0.2274203402341772</v>
       </c>
       <c r="J7" t="n">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="K7" t="n">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="L7" t="n">
-        <v>0.008281001463121718</v>
+        <v>0.0120040998147084</v>
       </c>
       <c r="M7" t="n">
-        <v>11.88034879848094</v>
+        <v>11.93519857155521</v>
       </c>
       <c r="N7" t="n">
-        <v>228.6291198853038</v>
+        <v>229.9400721686576</v>
       </c>
       <c r="O7" t="n">
-        <v>15.12048676085872</v>
+        <v>15.16377499729726</v>
       </c>
       <c r="P7" t="n">
-        <v>301.3639737438629</v>
+        <v>300.9804634286101</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27874,28 +28179,28 @@
         <v>0.0425</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2762917433214408</v>
+        <v>0.3186595640628416</v>
       </c>
       <c r="J8" t="n">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="K8" t="n">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01550829784000696</v>
+        <v>0.02066759888860148</v>
       </c>
       <c r="M8" t="n">
-        <v>12.79516518966471</v>
+        <v>12.84340474504183</v>
       </c>
       <c r="N8" t="n">
-        <v>259.3161870191261</v>
+        <v>260.6857880679406</v>
       </c>
       <c r="O8" t="n">
-        <v>16.10329739584803</v>
+        <v>16.14576687766613</v>
       </c>
       <c r="P8" t="n">
-        <v>287.9185158545749</v>
+        <v>287.4961682640682</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27952,28 +28257,28 @@
         <v>0.0542</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3977414085389819</v>
+        <v>0.4258092233619722</v>
       </c>
       <c r="J9" t="n">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="K9" t="n">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04379770885128109</v>
+        <v>0.05040013040026403</v>
       </c>
       <c r="M9" t="n">
-        <v>10.15389415220611</v>
+        <v>10.18585531875472</v>
       </c>
       <c r="N9" t="n">
-        <v>179.1607282629022</v>
+        <v>179.3602963486338</v>
       </c>
       <c r="O9" t="n">
-        <v>13.38509350968092</v>
+        <v>13.39254629817025</v>
       </c>
       <c r="P9" t="n">
-        <v>287.1012312545391</v>
+        <v>286.8142098965429</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28030,28 +28335,28 @@
         <v>0.0858</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2787572917968287</v>
+        <v>0.2981197755552253</v>
       </c>
       <c r="J10" t="n">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="K10" t="n">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02967835100302973</v>
+        <v>0.03432356301297568</v>
       </c>
       <c r="M10" t="n">
-        <v>8.966419146878994</v>
+        <v>8.961554854612169</v>
       </c>
       <c r="N10" t="n">
-        <v>135.7055278447741</v>
+        <v>135.1992716614276</v>
       </c>
       <c r="O10" t="n">
-        <v>11.64927155854709</v>
+        <v>11.62752216344599</v>
       </c>
       <c r="P10" t="n">
-        <v>292.0159698345216</v>
+        <v>291.8225469064224</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28108,28 +28413,28 @@
         <v>0.063</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3804209500244518</v>
+        <v>0.3983817859687582</v>
       </c>
       <c r="J11" t="n">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="K11" t="n">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05715399840731283</v>
+        <v>0.06319895968890588</v>
       </c>
       <c r="M11" t="n">
-        <v>8.646200945343956</v>
+        <v>8.64353547149755</v>
       </c>
       <c r="N11" t="n">
-        <v>125.9586863329265</v>
+        <v>125.7003804933196</v>
       </c>
       <c r="O11" t="n">
-        <v>11.22313175245334</v>
+        <v>11.21161810325876</v>
       </c>
       <c r="P11" t="n">
-        <v>298.4075423137799</v>
+        <v>298.227650612199</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28186,28 +28491,28 @@
         <v>0.038</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5159050351862524</v>
+        <v>0.532223838735607</v>
       </c>
       <c r="J12" t="n">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="K12" t="n">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="L12" t="n">
-        <v>0.08873092662880899</v>
+        <v>0.09541209824184815</v>
       </c>
       <c r="M12" t="n">
-        <v>9.526694690416246</v>
+        <v>9.492278761552173</v>
       </c>
       <c r="N12" t="n">
-        <v>144.5557365105159</v>
+        <v>143.8223385534741</v>
       </c>
       <c r="O12" t="n">
-        <v>12.02313338986622</v>
+        <v>11.99259515507274</v>
       </c>
       <c r="P12" t="n">
-        <v>295.771538021982</v>
+        <v>295.6078686521731</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28258,28 +28563,28 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>0.4574295253424305</v>
+        <v>0.4743619783286029</v>
       </c>
       <c r="J13" t="n">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="K13" t="n">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07295696021546616</v>
+        <v>0.07901431067382714</v>
       </c>
       <c r="M13" t="n">
-        <v>9.116091821624382</v>
+        <v>9.118683760100067</v>
       </c>
       <c r="N13" t="n">
-        <v>137.8638008193221</v>
+        <v>137.8966083888664</v>
       </c>
       <c r="O13" t="n">
-        <v>11.74154167131907</v>
+        <v>11.7429386606959</v>
       </c>
       <c r="P13" t="n">
-        <v>292.6084484148564</v>
+        <v>292.4382582644294</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28336,28 +28641,28 @@
         <v>0.0349</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3584371201650586</v>
+        <v>0.3712214849342231</v>
       </c>
       <c r="J14" t="n">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="K14" t="n">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03629384358488452</v>
+        <v>0.03950912494768732</v>
       </c>
       <c r="M14" t="n">
-        <v>10.3569265337391</v>
+        <v>10.35213140110509</v>
       </c>
       <c r="N14" t="n">
-        <v>180.3975008577113</v>
+        <v>179.6350903903835</v>
       </c>
       <c r="O14" t="n">
-        <v>13.43121367776238</v>
+        <v>13.40280158736909</v>
       </c>
       <c r="P14" t="n">
-        <v>299.8825159761081</v>
+        <v>299.7548857603454</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28395,7 +28700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O482"/>
+  <dimension ref="A1:O487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60037,6 +60342,391 @@
         </is>
       </c>
     </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:38+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>-46.46732898899669,169.7588121626135</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>-46.467774029245845,169.75816990278756</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>-46.46821373154989,169.75750670587442</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>-46.46870034495251,169.75691458534223</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>-46.46922852235961,169.75641701413196</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>-46.4698084277781,169.75603349310427</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>-46.47036813070415,169.75558103738769</t>
+        </is>
+      </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>-46.470954725009065,169.75527960728706</t>
+        </is>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>-46.471520636393514,169.75496416219437</t>
+        </is>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>-46.472142985735374,169.75476648929612</t>
+        </is>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>-46.47278398860684,169.754629045144</t>
+        </is>
+      </c>
+      <c r="M483" t="inlineStr">
+        <is>
+          <t>-46.473409932150524,169.75455121012322</t>
+        </is>
+      </c>
+      <c r="N483" t="inlineStr">
+        <is>
+          <t>-46.4740264942523,169.75455240193853</t>
+        </is>
+      </c>
+      <c r="O483" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>-46.46731962140122,169.7588014005034</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>-46.46777210044368,169.75816756024963</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>-46.46822431146205,169.75752231431537</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>-46.468730436922755,169.75696939543997</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>-46.469252749536594,169.75646743802204</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>-46.469809994407775,169.75603788853795</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>-46.4703741508031,169.7556068456284</t>
+        </is>
+      </c>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>-46.47097431227997,169.7553702775733</t>
+        </is>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>-46.471537142266364,169.755030005013</t>
+        </is>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>-46.47216314841633,169.7548698281342</t>
+        </is>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>-46.47279023568293,169.7547045561022</t>
+        </is>
+      </c>
+      <c r="M484" t="inlineStr">
+        <is>
+          <t>-46.473414820837924,169.75465563016996</t>
+        </is>
+      </c>
+      <c r="N484" t="inlineStr">
+        <is>
+          <t>-46.47403088203593,169.75463145963022</t>
+        </is>
+      </c>
+      <c r="O484" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>-46.467201505098664,169.75866570112868</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>-46.467634466517495,169.75800040386167</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>-46.46809401466664,169.75733008935498</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>-46.468611933717256,169.7567535520203</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>-46.46913393519604,169.75622015124645</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>-46.46970614299931,169.75574651811453</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>-46.47030563228939,169.75531310768392</t>
+        </is>
+      </c>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>-46.470907699170056,169.75506192434537</t>
+        </is>
+      </c>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>-46.471487422977404,169.75483167265622</t>
+        </is>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>-46.47211013869894,169.75459814110803</t>
+        </is>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>-46.47277326765357,169.75449945804726</t>
+        </is>
+      </c>
+      <c r="M485" t="inlineStr">
+        <is>
+          <t>-46.47340045662827,169.75434882330248</t>
+        </is>
+      </c>
+      <c r="N485" t="inlineStr">
+        <is>
+          <t>-46.47401167427894,169.75428538772795</t>
+        </is>
+      </c>
+      <c r="O485" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>-46.46727109301578,169.75874564797655</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>-46.467790837377116,169.75819031633927</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>-46.46821965126289,169.757515439168</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>-46.46869127570891,169.75689806646704</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>-46.469229800176855,169.75641967364373</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>-46.469771158434966,169.75592892812716</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>-46.470353900236006,169.75552003131065</t>
+        </is>
+      </c>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>-46.470946671218115,169.75524232607034</t>
+        </is>
+      </c>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>-46.47153063982445,169.7550040663983</t>
+        </is>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>-46.47215017099218,169.75480331549093</t>
+        </is>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>-46.472777330605005,169.75454856783907</t>
+        </is>
+      </c>
+      <c r="M486" t="inlineStr">
+        <is>
+          <t>-46.473404494292026,169.7544350624536</t>
+        </is>
+      </c>
+      <c r="N486" t="inlineStr">
+        <is>
+          <t>-46.4740242571338,169.7545120946313</t>
+        </is>
+      </c>
+      <c r="O486" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>-46.46735075280512,169.75883716632708</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>-46.467815567367424,169.7582203510549</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>-46.46822903463649,169.7575292823713</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>-46.46870406837674,169.7569213672535</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>-46.46920262372924,169.7563631115542</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>-46.46979540000935,169.7559969416133</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>-46.47036149009693,169.75555256905534</t>
+        </is>
+      </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>-46.47095390800156,169.75527582533414</t>
+        </is>
+      </c>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>-46.47152936474925,169.75499898005344</t>
+        </is>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>-46.472146382848024,169.7547839003189</t>
+        </is>
+      </c>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>-46.47279138886638,169.75471849516882</t>
+        </is>
+      </c>
+      <c r="M487" t="inlineStr">
+        <is>
+          <t>-46.47341616587674,169.754684359922</t>
+        </is>
+      </c>
+      <c r="N487" t="inlineStr">
+        <is>
+          <t>-46.474031918965906,169.7546501428507</t>
+        </is>
+      </c>
+      <c r="O487" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0540/nzd0540.xlsx
+++ b/data/nzd0540/nzd0540.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O487"/>
+  <dimension ref="A1:O490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22559,6 +22559,157 @@
         </is>
       </c>
     </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>304.98</v>
+      </c>
+      <c r="C488" t="n">
+        <v>313.61</v>
+      </c>
+      <c r="D488" t="n">
+        <v>315.1</v>
+      </c>
+      <c r="E488" t="n">
+        <v>309.39</v>
+      </c>
+      <c r="F488" t="n">
+        <v>314.15</v>
+      </c>
+      <c r="G488" t="n">
+        <v>320.25</v>
+      </c>
+      <c r="H488" t="n">
+        <v>312.17</v>
+      </c>
+      <c r="I488" t="n">
+        <v>303.37</v>
+      </c>
+      <c r="J488" t="n">
+        <v>305.28</v>
+      </c>
+      <c r="K488" t="n">
+        <v>314.91</v>
+      </c>
+      <c r="L488" t="n">
+        <v>322.82</v>
+      </c>
+      <c r="M488" t="n">
+        <v>320.9346153846154</v>
+      </c>
+      <c r="N488" t="n">
+        <v>320.52</v>
+      </c>
+      <c r="O488" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:14:27+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>236.28</v>
+      </c>
+      <c r="C489" t="n">
+        <v>296.51</v>
+      </c>
+      <c r="D489" t="n">
+        <v>295.6</v>
+      </c>
+      <c r="E489" t="n">
+        <v>301.2</v>
+      </c>
+      <c r="F489" t="n">
+        <v>298.75</v>
+      </c>
+      <c r="G489" t="n">
+        <v>308.92</v>
+      </c>
+      <c r="H489" t="n">
+        <v>286.3014285714286</v>
+      </c>
+      <c r="I489" t="n">
+        <v>298.3</v>
+      </c>
+      <c r="J489" t="n">
+        <v>302.4657142857143</v>
+      </c>
+      <c r="K489" t="n">
+        <v>308.91</v>
+      </c>
+      <c r="L489" t="n">
+        <v>319.4414285714286</v>
+      </c>
+      <c r="M489" t="n">
+        <v>308.6138461538461</v>
+      </c>
+      <c r="N489" t="n">
+        <v>306.28</v>
+      </c>
+      <c r="O489" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>199.57</v>
+      </c>
+      <c r="C490" t="inlineStr"/>
+      <c r="D490" t="n">
+        <v>287.94</v>
+      </c>
+      <c r="E490" t="n">
+        <v>292.2111111111111</v>
+      </c>
+      <c r="F490" t="n">
+        <v>291.6211111111111</v>
+      </c>
+      <c r="G490" t="n">
+        <v>290.49</v>
+      </c>
+      <c r="H490" t="n">
+        <v>285.9542857142857</v>
+      </c>
+      <c r="I490" t="n">
+        <v>286.5711111111111</v>
+      </c>
+      <c r="J490" t="n">
+        <v>297.7671428571429</v>
+      </c>
+      <c r="K490" t="n">
+        <v>311.58</v>
+      </c>
+      <c r="L490" t="n">
+        <v>299.8442857142857</v>
+      </c>
+      <c r="M490" t="n">
+        <v>285.3761538461538</v>
+      </c>
+      <c r="N490" t="n">
+        <v>286.7366666666667</v>
+      </c>
+      <c r="O490" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22570,7 +22721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B496"/>
+  <dimension ref="A1:B499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27538,6 +27689,36 @@
       </c>
       <c r="B496" t="n">
         <v>0.55</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>-0.85</v>
       </c>
     </row>
   </sheetData>
@@ -27711,28 +27892,28 @@
         <v>0.0329</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1980839924714213</v>
+        <v>0.1292658728074647</v>
       </c>
       <c r="J2" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K2" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001253790008356459</v>
+        <v>0.0005332579769449231</v>
       </c>
       <c r="M2" t="n">
-        <v>29.64280370023175</v>
+        <v>29.92651005095781</v>
       </c>
       <c r="N2" t="n">
-        <v>1675.39987087886</v>
+        <v>1692.036146483033</v>
       </c>
       <c r="O2" t="n">
-        <v>40.93164876814591</v>
+        <v>41.13436697559636</v>
       </c>
       <c r="P2" t="n">
-        <v>281.1591221293028</v>
+        <v>281.8666944865083</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27789,28 +27970,28 @@
         <v>0.0308</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0009621898626784854</v>
+        <v>0.01283953032250383</v>
       </c>
       <c r="J3" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K3" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L3" t="n">
-        <v>1.004619870625945e-07</v>
+        <v>1.803181946813392e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>16.75420587812034</v>
+        <v>16.71759109547763</v>
       </c>
       <c r="N3" t="n">
-        <v>477.6812773341991</v>
+        <v>476.2294941052576</v>
       </c>
       <c r="O3" t="n">
-        <v>21.85592087591368</v>
+        <v>21.8226830180264</v>
       </c>
       <c r="P3" t="n">
-        <v>293.4081714112866</v>
+        <v>293.2848755397893</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27867,28 +28048,28 @@
         <v>0.0501</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.127374641225373</v>
+        <v>-0.1255201051461581</v>
       </c>
       <c r="J4" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K4" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003126519085439483</v>
+        <v>0.003069306624721713</v>
       </c>
       <c r="M4" t="n">
-        <v>12.97222048671385</v>
+        <v>12.94777184439763</v>
       </c>
       <c r="N4" t="n">
-        <v>267.2761864360552</v>
+        <v>266.2325616001496</v>
       </c>
       <c r="O4" t="n">
-        <v>16.34858362171033</v>
+        <v>16.31663450593135</v>
       </c>
       <c r="P4" t="n">
-        <v>301.5094166180455</v>
+        <v>301.4902580750023</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27945,28 +28126,28 @@
         <v>0.0504</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1143130238065089</v>
+        <v>-0.1118293736882512</v>
       </c>
       <c r="J5" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K5" t="n">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003044429486827482</v>
+        <v>0.002951188707743246</v>
       </c>
       <c r="M5" t="n">
-        <v>12.00277363140087</v>
+        <v>11.95895792483261</v>
       </c>
       <c r="N5" t="n">
-        <v>226.1320270816576</v>
+        <v>224.7937833290488</v>
       </c>
       <c r="O5" t="n">
-        <v>15.03768689265931</v>
+        <v>14.99312453523443</v>
       </c>
       <c r="P5" t="n">
-        <v>302.1139107714965</v>
+        <v>302.0884704483569</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28023,28 +28204,28 @@
         <v>0.0546</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.009971945660507164</v>
+        <v>-0.011685509306041</v>
       </c>
       <c r="J6" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K6" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="L6" t="n">
-        <v>2.239461674802268e-05</v>
+        <v>3.11089293725253e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>11.80253619566277</v>
+        <v>11.77956681417416</v>
       </c>
       <c r="N6" t="n">
-        <v>234.4731125193423</v>
+        <v>233.3537951047668</v>
       </c>
       <c r="O6" t="n">
-        <v>15.31251489858352</v>
+        <v>15.27592207052546</v>
       </c>
       <c r="P6" t="n">
-        <v>302.9247817307956</v>
+        <v>302.9426665476556</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28101,28 +28282,28 @@
         <v>0.047</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2274203402341772</v>
+        <v>0.2270196012751797</v>
       </c>
       <c r="J7" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K7" t="n">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0120040998147084</v>
+        <v>0.01207784952999169</v>
       </c>
       <c r="M7" t="n">
-        <v>11.93519857155521</v>
+        <v>11.92520813594328</v>
       </c>
       <c r="N7" t="n">
-        <v>229.9400721686576</v>
+        <v>229.3314368865532</v>
       </c>
       <c r="O7" t="n">
-        <v>15.16377499729726</v>
+        <v>15.14369297386054</v>
       </c>
       <c r="P7" t="n">
-        <v>300.9804634286101</v>
+        <v>300.9847437976247</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28179,28 +28360,28 @@
         <v>0.0425</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3186595640628416</v>
+        <v>0.3173973163555397</v>
       </c>
       <c r="J8" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K8" t="n">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02066759888860148</v>
+        <v>0.02071900216136968</v>
       </c>
       <c r="M8" t="n">
-        <v>12.84340474504183</v>
+        <v>12.83600852202478</v>
       </c>
       <c r="N8" t="n">
-        <v>260.6857880679406</v>
+        <v>259.8468871476462</v>
       </c>
       <c r="O8" t="n">
-        <v>16.14576687766613</v>
+        <v>16.11976696939649</v>
       </c>
       <c r="P8" t="n">
-        <v>287.4961682640682</v>
+        <v>287.5090721238691</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28257,28 +28438,28 @@
         <v>0.0542</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4258092233619722</v>
+        <v>0.4234229927798963</v>
       </c>
       <c r="J9" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K9" t="n">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05040013040026403</v>
+        <v>0.05046028284068871</v>
       </c>
       <c r="M9" t="n">
-        <v>10.18585531875472</v>
+        <v>10.15279999617134</v>
       </c>
       <c r="N9" t="n">
-        <v>179.3602963486338</v>
+        <v>178.3924888968146</v>
       </c>
       <c r="O9" t="n">
-        <v>13.39254629817025</v>
+        <v>13.35636510794814</v>
       </c>
       <c r="P9" t="n">
-        <v>286.8142098965429</v>
+        <v>286.8389014459807</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28335,28 +28516,28 @@
         <v>0.0858</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2981197755552253</v>
+        <v>0.3014969804181705</v>
       </c>
       <c r="J10" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K10" t="n">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03432356301297568</v>
+        <v>0.03555106079538395</v>
       </c>
       <c r="M10" t="n">
-        <v>8.961554854612169</v>
+        <v>8.918833841470379</v>
       </c>
       <c r="N10" t="n">
-        <v>135.1992716614276</v>
+        <v>134.2902692490473</v>
       </c>
       <c r="O10" t="n">
-        <v>11.62752216344599</v>
+        <v>11.58836784232565</v>
       </c>
       <c r="P10" t="n">
-        <v>291.8225469064224</v>
+        <v>291.788664202081</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28413,28 +28594,28 @@
         <v>0.063</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3983817859687582</v>
+        <v>0.4032000686066149</v>
       </c>
       <c r="J11" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K11" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06319895968890588</v>
+        <v>0.06548280798874462</v>
       </c>
       <c r="M11" t="n">
-        <v>8.64353547149755</v>
+        <v>8.599182291462339</v>
       </c>
       <c r="N11" t="n">
-        <v>125.7003804933196</v>
+        <v>124.8886549848717</v>
       </c>
       <c r="O11" t="n">
-        <v>11.21161810325876</v>
+        <v>11.17535927766404</v>
       </c>
       <c r="P11" t="n">
-        <v>298.227650612199</v>
+        <v>298.1791283683393</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28491,28 +28672,28 @@
         <v>0.038</v>
       </c>
       <c r="I12" t="n">
-        <v>0.532223838735607</v>
+        <v>0.5391191162116227</v>
       </c>
       <c r="J12" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K12" t="n">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L12" t="n">
-        <v>0.09541209824184815</v>
+        <v>0.09839540967580429</v>
       </c>
       <c r="M12" t="n">
-        <v>9.492278761552173</v>
+        <v>9.499380527340556</v>
       </c>
       <c r="N12" t="n">
-        <v>143.8223385534741</v>
+        <v>143.6824706766221</v>
       </c>
       <c r="O12" t="n">
-        <v>11.99259515507274</v>
+        <v>11.98676231000774</v>
       </c>
       <c r="P12" t="n">
-        <v>295.6078686521731</v>
+        <v>295.5384914778382</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28563,28 +28744,28 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>0.4743619783286029</v>
+        <v>0.4748954250459646</v>
       </c>
       <c r="J13" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K13" t="n">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07901431067382714</v>
+        <v>0.07944882265806286</v>
       </c>
       <c r="M13" t="n">
-        <v>9.118683760100067</v>
+        <v>9.149351153905327</v>
       </c>
       <c r="N13" t="n">
-        <v>137.8966083888664</v>
+        <v>138.5039590224505</v>
       </c>
       <c r="O13" t="n">
-        <v>11.7429386606959</v>
+        <v>11.76877049748403</v>
       </c>
       <c r="P13" t="n">
-        <v>292.4382582644294</v>
+        <v>292.4331440000752</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28641,28 +28822,28 @@
         <v>0.0349</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3712214849342231</v>
+        <v>0.3638364048311328</v>
       </c>
       <c r="J14" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K14" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03950912494768732</v>
+        <v>0.03825224221352896</v>
       </c>
       <c r="M14" t="n">
-        <v>10.35213140110509</v>
+        <v>10.37004015231411</v>
       </c>
       <c r="N14" t="n">
-        <v>179.6350903903835</v>
+        <v>179.9131225683664</v>
       </c>
       <c r="O14" t="n">
-        <v>13.40280158736909</v>
+        <v>13.41316974351575</v>
       </c>
       <c r="P14" t="n">
-        <v>299.7548857603454</v>
+        <v>299.8292805026197</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28700,7 +28881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O487"/>
+  <dimension ref="A1:O490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60727,6 +60908,233 @@
         </is>
       </c>
     </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>-46.467274755536316,169.758749855711</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>-46.46773738199712,169.75812539459523</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>-46.46818419595119,169.75746313234222</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>-46.468649733695855,169.75682240125843</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>-46.46919460313529,169.75634641838758</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>-46.46977078739015,169.7559278871049</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>-46.470351985304845,169.7555118220057</t>
+        </is>
+      </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>-46.47093296990628,169.7551789024796</t>
+        </is>
+      </c>
+      <c r="J488" t="inlineStr">
+        <is>
+          <t>-46.47151514173052,169.75494224372878</t>
+        </is>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>-46.47214098168208,169.7547562180463</t>
+        </is>
+      </c>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>-46.47279093523018,169.7547130118538</t>
+        </is>
+      </c>
+      <c r="M488" t="inlineStr">
+        <is>
+          <t>-46.473415218364046,169.75466412122998</t>
+        </is>
+      </c>
+      <c r="N488" t="inlineStr">
+        <is>
+          <t>-46.474029806697935,169.75461208443957</t>
+        </is>
+      </c>
+      <c r="O488" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:14:27+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>-46.4667908789935,169.75819395411088</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>-46.467619587160605,169.757982332951</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>-46.46806139318865,169.7572819635784</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>-46.468603914969826,169.75673894661955</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>-46.469115537980855,169.75618186154912</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>-46.469724076898316,169.75579683408483</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>-46.47027757375759,169.75519282227197</t>
+        </is>
+      </c>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>-46.470919363977536,169.75511592060977</t>
+        </is>
+      </c>
+      <c r="J489" t="inlineStr">
+        <is>
+          <t>-46.47150650975567,169.75490781042296</t>
+        </is>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>-46.47212631784994,169.7546810625845</t>
+        </is>
+      </c>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>-46.4727873229326,169.7546693484231</t>
+        </is>
+      </c>
+      <c r="M489" t="inlineStr">
+        <is>
+          <t>-46.47340772746313,169.75450411971676</t>
+        </is>
+      </c>
+      <c r="N489" t="inlineStr">
+        <is>
+          <t>-46.47401955241785,169.75442732820443</t>
+        </is>
+      </c>
+      <c r="O489" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>-46.46653231745125,169.75789691084643</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr"/>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>-46.46801315367097,169.7572107969951</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>-46.46855362681584,169.7566473516083</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>-46.46907893746926,169.75610568590665</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>-46.46964809473827,169.7555836565402</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>-46.470276575187185,169.75518854146662</t>
+        </is>
+      </c>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>-46.470887888023675,169.7549702190891</t>
+        </is>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>-46.471492098278674,169.75485032255858</t>
+        </is>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>-46.47213284326123,169.7547145067597</t>
+        </is>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>-46.47276636975276,169.75441608219447</t>
+        </is>
+      </c>
+      <c r="M490" t="inlineStr">
+        <is>
+          <t>-46.47339359857826,169.75420234764496</t>
+        </is>
+      </c>
+      <c r="N490" t="inlineStr">
+        <is>
+          <t>-46.474005478702814,169.75417376425028</t>
+        </is>
+      </c>
+      <c r="O490" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0540/nzd0540.xlsx
+++ b/data/nzd0540/nzd0540.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -30196,7 +30196,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>-46.47275171991428,169.75423901013076</t>
+          <t>-46.472751719914285,169.75423901013076</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -36081,7 +36081,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-46.46746783134668,169.7577980269544</t>
+          <t>-46.46746783134669,169.7577980269544</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -52917,7 +52917,7 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>-46.472793185079894,169.75474020688182</t>
+          <t>-46.4727931850799,169.75474020688182</t>
         </is>
       </c>
       <c r="M375" t="inlineStr">
@@ -55753,7 +55753,7 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>-46.472759175465086,169.75432912467684</t>
+          <t>-46.47275917546508,169.75432912467684</t>
         </is>
       </c>
       <c r="M415" t="inlineStr">

--- a/data/nzd0540/nzd0540.xlsx
+++ b/data/nzd0540/nzd0540.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O490"/>
+  <dimension ref="A1:O491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22616,9 +22616,7 @@
           <t>2025-05-21 22:14:27+00:00</t>
         </is>
       </c>
-      <c r="B489" t="n">
-        <v>236.28</v>
-      </c>
+      <c r="B489" t="inlineStr"/>
       <c r="C489" t="n">
         <v>296.51</v>
       </c>
@@ -22667,10 +22665,10 @@
           <t>2025-05-29 22:14:03+00:00</t>
         </is>
       </c>
-      <c r="B490" t="n">
-        <v>199.57</v>
-      </c>
-      <c r="C490" t="inlineStr"/>
+      <c r="B490" t="inlineStr"/>
+      <c r="C490" t="n">
+        <v>256.06</v>
+      </c>
       <c r="D490" t="n">
         <v>287.94</v>
       </c>
@@ -22707,6 +22705,57 @@
       <c r="O490" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:14:06+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>265.23</v>
+      </c>
+      <c r="C491" t="n">
+        <v>292.4</v>
+      </c>
+      <c r="D491" t="n">
+        <v>292.34</v>
+      </c>
+      <c r="E491" t="n">
+        <v>289.0922222222222</v>
+      </c>
+      <c r="F491" t="n">
+        <v>288.1522222222222</v>
+      </c>
+      <c r="G491" t="n">
+        <v>286.95</v>
+      </c>
+      <c r="H491" t="n">
+        <v>266.8314285714285</v>
+      </c>
+      <c r="I491" t="n">
+        <v>285.9022222222222</v>
+      </c>
+      <c r="J491" t="n">
+        <v>291.1857142857143</v>
+      </c>
+      <c r="K491" t="n">
+        <v>303.22</v>
+      </c>
+      <c r="L491" t="n">
+        <v>312.8014285714286</v>
+      </c>
+      <c r="M491" t="n">
+        <v>304.0046153846154</v>
+      </c>
+      <c r="N491" t="n">
+        <v>296.5133333333333</v>
+      </c>
+      <c r="O491" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -22721,7 +22770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B499"/>
+  <dimension ref="A1:B500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27719,6 +27768,16 @@
       </c>
       <c r="B499" t="n">
         <v>-0.85</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>
@@ -27892,28 +27951,28 @@
         <v>0.0329</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1292658728074647</v>
+        <v>0.1966567921768183</v>
       </c>
       <c r="J2" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K2" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005332579769449231</v>
+        <v>0.001248508171540874</v>
       </c>
       <c r="M2" t="n">
-        <v>29.92651005095781</v>
+        <v>29.5815889336266</v>
       </c>
       <c r="N2" t="n">
-        <v>1692.036146483033</v>
+        <v>1667.20245574077</v>
       </c>
       <c r="O2" t="n">
-        <v>41.13436697559636</v>
+        <v>40.83139056829647</v>
       </c>
       <c r="P2" t="n">
-        <v>281.8666944865083</v>
+        <v>281.1743428115504</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27970,28 +28029,28 @@
         <v>0.0308</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01283953032250383</v>
+        <v>-0.006774870666733889</v>
       </c>
       <c r="J3" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K3" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L3" t="n">
-        <v>1.803181946813392e-05</v>
+        <v>5.032446673935986e-06</v>
       </c>
       <c r="M3" t="n">
-        <v>16.71759109547763</v>
+        <v>16.74522912769598</v>
       </c>
       <c r="N3" t="n">
-        <v>476.2294941052576</v>
+        <v>477.4202963934346</v>
       </c>
       <c r="O3" t="n">
-        <v>21.8226830180264</v>
+        <v>21.84994957416228</v>
       </c>
       <c r="P3" t="n">
-        <v>293.2848755397893</v>
+        <v>293.4891078994543</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28048,28 +28107,28 @@
         <v>0.0501</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1255201051461581</v>
+        <v>-0.1284095487078083</v>
       </c>
       <c r="J4" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K4" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003069306624721713</v>
+        <v>0.003226223646010329</v>
       </c>
       <c r="M4" t="n">
-        <v>12.94777184439763</v>
+        <v>12.93106442392974</v>
       </c>
       <c r="N4" t="n">
-        <v>266.2325616001496</v>
+        <v>265.6379168299927</v>
       </c>
       <c r="O4" t="n">
-        <v>16.31663450593135</v>
+        <v>16.29840227844413</v>
       </c>
       <c r="P4" t="n">
-        <v>301.4902580750023</v>
+        <v>301.5205675878646</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28126,28 +28185,28 @@
         <v>0.0504</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1118293736882512</v>
+        <v>-0.1166735203791551</v>
       </c>
       <c r="J5" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K5" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002951188707743246</v>
+        <v>0.00322321208909826</v>
       </c>
       <c r="M5" t="n">
-        <v>11.95895792483261</v>
+        <v>11.95539746546678</v>
       </c>
       <c r="N5" t="n">
-        <v>224.7937833290488</v>
+        <v>224.4792860443811</v>
       </c>
       <c r="O5" t="n">
-        <v>14.99312453523443</v>
+        <v>14.98263281417459</v>
       </c>
       <c r="P5" t="n">
-        <v>302.0884704483569</v>
+        <v>302.1385042495486</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28204,28 +28263,28 @@
         <v>0.0546</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.011685509306041</v>
+        <v>-0.01863486046203923</v>
       </c>
       <c r="J6" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K6" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L6" t="n">
-        <v>3.11089293725253e-05</v>
+        <v>7.930544843193221e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>11.77956681417416</v>
+        <v>11.78700370170077</v>
       </c>
       <c r="N6" t="n">
-        <v>233.3537951047668</v>
+        <v>233.2897507909286</v>
       </c>
       <c r="O6" t="n">
-        <v>15.27592207052546</v>
+        <v>15.27382567633036</v>
       </c>
       <c r="P6" t="n">
-        <v>302.9426665476556</v>
+        <v>303.0145773308935</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28282,28 +28341,28 @@
         <v>0.047</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2270196012751797</v>
+        <v>0.2175580143091116</v>
       </c>
       <c r="J7" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K7" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01207784952999169</v>
+        <v>0.01110875502277076</v>
       </c>
       <c r="M7" t="n">
-        <v>11.92520813594328</v>
+        <v>11.94621423828137</v>
       </c>
       <c r="N7" t="n">
-        <v>229.3314368865532</v>
+        <v>229.7448677413081</v>
       </c>
       <c r="O7" t="n">
-        <v>15.14369297386054</v>
+        <v>15.15733709268578</v>
       </c>
       <c r="P7" t="n">
-        <v>300.9847437976247</v>
+        <v>301.0803980395927</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28360,28 +28419,28 @@
         <v>0.0425</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3173973163555397</v>
+        <v>0.3035822449970237</v>
       </c>
       <c r="J8" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K8" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02071900216136968</v>
+        <v>0.0189293320831202</v>
       </c>
       <c r="M8" t="n">
-        <v>12.83600852202478</v>
+        <v>12.87832053620172</v>
       </c>
       <c r="N8" t="n">
-        <v>259.8468871476462</v>
+        <v>261.2904724934751</v>
       </c>
       <c r="O8" t="n">
-        <v>16.11976696939649</v>
+        <v>16.16448181951637</v>
       </c>
       <c r="P8" t="n">
-        <v>287.5090721238691</v>
+        <v>287.6480482960234</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28438,28 +28497,28 @@
         <v>0.0542</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4234229927798963</v>
+        <v>0.4177523271636394</v>
       </c>
       <c r="J9" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K9" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05046028284068871</v>
+        <v>0.04931949906389732</v>
       </c>
       <c r="M9" t="n">
-        <v>10.15279999617134</v>
+        <v>10.1574799831788</v>
       </c>
       <c r="N9" t="n">
-        <v>178.3924888968146</v>
+        <v>178.2905759793255</v>
       </c>
       <c r="O9" t="n">
-        <v>13.35636510794814</v>
+        <v>13.35254941871871</v>
       </c>
       <c r="P9" t="n">
-        <v>286.8389014459807</v>
+        <v>286.8974124446112</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28516,28 +28575,28 @@
         <v>0.0858</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3014969804181705</v>
+        <v>0.2975573544392184</v>
       </c>
       <c r="J10" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K10" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03555106079538395</v>
+        <v>0.03477962476424801</v>
       </c>
       <c r="M10" t="n">
-        <v>8.918833841470379</v>
+        <v>8.918910233234184</v>
       </c>
       <c r="N10" t="n">
-        <v>134.2902692490473</v>
+        <v>134.1257451750739</v>
       </c>
       <c r="O10" t="n">
-        <v>11.58836784232565</v>
+        <v>11.58126699351474</v>
       </c>
       <c r="P10" t="n">
-        <v>291.788664202081</v>
+        <v>291.8283634518564</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28594,28 +28653,28 @@
         <v>0.063</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4032000686066149</v>
+        <v>0.4006803979896575</v>
       </c>
       <c r="J11" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K11" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06548280798874462</v>
+        <v>0.06498473572497532</v>
       </c>
       <c r="M11" t="n">
-        <v>8.599182291462339</v>
+        <v>8.59344693260411</v>
       </c>
       <c r="N11" t="n">
-        <v>124.8886549848717</v>
+        <v>124.6473585008781</v>
       </c>
       <c r="O11" t="n">
-        <v>11.17535927766404</v>
+        <v>11.16455814176621</v>
       </c>
       <c r="P11" t="n">
-        <v>298.1791283683393</v>
+        <v>298.2045857521904</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28672,28 +28731,28 @@
         <v>0.038</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5391191162116227</v>
+        <v>0.5407664736629081</v>
       </c>
       <c r="J12" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K12" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L12" t="n">
-        <v>0.09839540967580429</v>
+        <v>0.09936165965260835</v>
       </c>
       <c r="M12" t="n">
-        <v>9.499380527340556</v>
+        <v>9.482839333579133</v>
       </c>
       <c r="N12" t="n">
-        <v>143.6824706766221</v>
+        <v>143.3492189904874</v>
       </c>
       <c r="O12" t="n">
-        <v>11.98676231000774</v>
+        <v>11.97285341890092</v>
       </c>
       <c r="P12" t="n">
-        <v>295.5384914778382</v>
+        <v>295.5218322990278</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28744,28 +28803,28 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>0.4748954250459646</v>
+        <v>0.4745940179942175</v>
       </c>
       <c r="J13" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K13" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07944882265806286</v>
+        <v>0.07973521927984939</v>
       </c>
       <c r="M13" t="n">
-        <v>9.149351153905327</v>
+        <v>9.127971467945201</v>
       </c>
       <c r="N13" t="n">
-        <v>138.5039590224505</v>
+        <v>138.1551301121109</v>
       </c>
       <c r="O13" t="n">
-        <v>11.76877049748403</v>
+        <v>11.75394104596883</v>
       </c>
       <c r="P13" t="n">
-        <v>292.4331440000752</v>
+        <v>292.4361965825569</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28822,28 +28881,28 @@
         <v>0.0349</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3638364048311328</v>
+        <v>0.3573431130859948</v>
       </c>
       <c r="J14" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K14" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03825224221352896</v>
+        <v>0.03705483951131827</v>
       </c>
       <c r="M14" t="n">
-        <v>10.37004015231411</v>
+        <v>10.37807605370581</v>
       </c>
       <c r="N14" t="n">
-        <v>179.9131225683664</v>
+        <v>179.8560549710244</v>
       </c>
       <c r="O14" t="n">
-        <v>13.41316974351575</v>
+        <v>13.41104227757949</v>
       </c>
       <c r="P14" t="n">
-        <v>299.8292805026197</v>
+        <v>299.8946085823526</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28881,7 +28940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O490"/>
+  <dimension ref="A1:O491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60991,11 +61050,7 @@
           <t>2025-05-21 22:14:27+00:00</t>
         </is>
       </c>
-      <c r="B489" t="inlineStr">
-        <is>
-          <t>-46.4667908789935,169.75819395411088</t>
-        </is>
-      </c>
+      <c r="B489" t="inlineStr"/>
       <c r="C489" t="inlineStr">
         <is>
           <t>-46.467619587160605,169.757982332951</t>
@@ -61068,12 +61123,12 @@
           <t>2025-05-29 22:14:03+00:00</t>
         </is>
       </c>
-      <c r="B490" t="inlineStr">
-        <is>
-          <t>-46.46653231745125,169.75789691084643</t>
-        </is>
-      </c>
-      <c r="C490" t="inlineStr"/>
+      <c r="B490" t="inlineStr"/>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>-46.46734094316077,169.75764392349444</t>
+        </is>
+      </c>
       <c r="D490" t="inlineStr">
         <is>
           <t>-46.46801315367097,169.7572107969951</t>
@@ -61132,6 +61187,83 @@
       <c r="O490" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:14:06+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>-46.46699478360415,169.75842820839623</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>-46.46759127504366,169.75794794805088</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>-46.468040863059564,169.75725167595704</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>-46.46853617823989,169.75661557078328</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>-46.46906112778886,169.75606861918044</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>-46.46963350018289,169.75554270986515</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>-46.4702215672763,169.75495272748154</t>
+        </is>
+      </c>
+      <c r="I491" t="inlineStr">
+        <is>
+          <t>-46.47088609297043,169.75496190985655</t>
+        </is>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>-46.471471911647356,169.75476979765264</t>
+        </is>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>-46.47211241160438,169.75460979019448</t>
+        </is>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>-46.47278022353586,169.75458353549297</t>
+        </is>
+      </c>
+      <c r="M491" t="inlineStr">
+        <is>
+          <t>-46.473404925040924,169.75444426276246</t>
+        </is>
+      </c>
+      <c r="N491" t="inlineStr">
+        <is>
+          <t>-46.47401251923094,169.7543006110795</t>
+        </is>
+      </c>
+      <c r="O491" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0540/nzd0540.xlsx
+++ b/data/nzd0540/nzd0540.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O491"/>
+  <dimension ref="A1:O497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22759,6 +22759,284 @@
         </is>
       </c>
     </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:43+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr"/>
+      <c r="C492" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="D492" t="inlineStr"/>
+      <c r="E492" t="inlineStr"/>
+      <c r="F492" t="inlineStr"/>
+      <c r="G492" t="inlineStr"/>
+      <c r="H492" t="inlineStr"/>
+      <c r="I492" t="inlineStr"/>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
+      <c r="L492" t="inlineStr"/>
+      <c r="M492" t="inlineStr"/>
+      <c r="N492" t="inlineStr"/>
+      <c r="O492" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr"/>
+      <c r="C493" t="n">
+        <v>273.47</v>
+      </c>
+      <c r="D493" t="n">
+        <v>295.18</v>
+      </c>
+      <c r="E493" t="n">
+        <v>298.6177777777777</v>
+      </c>
+      <c r="F493" t="n">
+        <v>301.9277777777777</v>
+      </c>
+      <c r="G493" t="n">
+        <v>301.74</v>
+      </c>
+      <c r="H493" t="n">
+        <v>296.3885714285714</v>
+      </c>
+      <c r="I493" t="n">
+        <v>292.2577777777778</v>
+      </c>
+      <c r="J493" t="n">
+        <v>297.1742857142857</v>
+      </c>
+      <c r="K493" t="n">
+        <v>300.12</v>
+      </c>
+      <c r="L493" t="n">
+        <v>297.7985714285714</v>
+      </c>
+      <c r="M493" t="n">
+        <v>294.3553846153847</v>
+      </c>
+      <c r="N493" t="n">
+        <v>302.7466666666667</v>
+      </c>
+      <c r="O493" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>231.28</v>
+      </c>
+      <c r="C494" t="n">
+        <v>268.05</v>
+      </c>
+      <c r="D494" t="n">
+        <v>296.66</v>
+      </c>
+      <c r="E494" t="n">
+        <v>297.8888888888889</v>
+      </c>
+      <c r="F494" t="n">
+        <v>299.3988888888889</v>
+      </c>
+      <c r="G494" t="n">
+        <v>299.64</v>
+      </c>
+      <c r="H494" t="n">
+        <v>291.3028571428572</v>
+      </c>
+      <c r="I494" t="n">
+        <v>287.0088888888889</v>
+      </c>
+      <c r="J494" t="n">
+        <v>295.8114285714286</v>
+      </c>
+      <c r="K494" t="n">
+        <v>300.39</v>
+      </c>
+      <c r="L494" t="n">
+        <v>304.1728571428571</v>
+      </c>
+      <c r="M494" t="n">
+        <v>298.8407692307692</v>
+      </c>
+      <c r="N494" t="n">
+        <v>300.0333333333333</v>
+      </c>
+      <c r="O494" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>198.35</v>
+      </c>
+      <c r="C495" t="n">
+        <v>299.97</v>
+      </c>
+      <c r="D495" t="n">
+        <v>313.31</v>
+      </c>
+      <c r="E495" t="n">
+        <v>316.86</v>
+      </c>
+      <c r="F495" t="n">
+        <v>315.98</v>
+      </c>
+      <c r="G495" t="n">
+        <v>318.42</v>
+      </c>
+      <c r="H495" t="n">
+        <v>304.9328571428572</v>
+      </c>
+      <c r="I495" t="n">
+        <v>304.2</v>
+      </c>
+      <c r="J495" t="n">
+        <v>305.0614285714286</v>
+      </c>
+      <c r="K495" t="n">
+        <v>316.81</v>
+      </c>
+      <c r="L495" t="n">
+        <v>313.3328571428572</v>
+      </c>
+      <c r="M495" t="n">
+        <v>312.2584615384616</v>
+      </c>
+      <c r="N495" t="n">
+        <v>312.74</v>
+      </c>
+      <c r="O495" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>198.92</v>
+      </c>
+      <c r="C496" t="n">
+        <v>263.3</v>
+      </c>
+      <c r="D496" t="n">
+        <v>291.48</v>
+      </c>
+      <c r="E496" t="n">
+        <v>298.7288888888889</v>
+      </c>
+      <c r="F496" t="n">
+        <v>300.6488888888889</v>
+      </c>
+      <c r="G496" t="n">
+        <v>299</v>
+      </c>
+      <c r="H496" t="n">
+        <v>281.6271428571428</v>
+      </c>
+      <c r="I496" t="n">
+        <v>279.0988888888889</v>
+      </c>
+      <c r="J496" t="n">
+        <v>285.6885714285714</v>
+      </c>
+      <c r="K496" t="n">
+        <v>290.43</v>
+      </c>
+      <c r="L496" t="n">
+        <v>290.2671428571429</v>
+      </c>
+      <c r="M496" t="n">
+        <v>282.9238461538461</v>
+      </c>
+      <c r="N496" t="n">
+        <v>288.4933333333333</v>
+      </c>
+      <c r="O496" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr"/>
+      <c r="C497" t="n">
+        <v>278.67</v>
+      </c>
+      <c r="D497" t="n">
+        <v>288.5</v>
+      </c>
+      <c r="E497" t="n">
+        <v>290.2766666666667</v>
+      </c>
+      <c r="F497" t="n">
+        <v>295.8166666666667</v>
+      </c>
+      <c r="G497" t="n">
+        <v>293.26</v>
+      </c>
+      <c r="H497" t="n">
+        <v>270.4185714285715</v>
+      </c>
+      <c r="I497" t="n">
+        <v>272.7166666666667</v>
+      </c>
+      <c r="J497" t="n">
+        <v>274.5642857142857</v>
+      </c>
+      <c r="K497" t="n">
+        <v>294.27</v>
+      </c>
+      <c r="L497" t="n">
+        <v>282.3585714285715</v>
+      </c>
+      <c r="M497" t="n">
+        <v>280.0323076923077</v>
+      </c>
+      <c r="N497" t="n">
+        <v>277.92</v>
+      </c>
+      <c r="O497" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22770,7 +23048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B500"/>
+  <dimension ref="A1:B506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27778,6 +28056,66 @@
       </c>
       <c r="B500" t="n">
         <v>0.37</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -27951,28 +28289,28 @@
         <v>0.0329</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1966567921768183</v>
+        <v>0.06323440166686195</v>
       </c>
       <c r="J2" t="n">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="K2" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001248508171540874</v>
+        <v>0.000127146496797792</v>
       </c>
       <c r="M2" t="n">
-        <v>29.5815889336266</v>
+        <v>30.16260793668308</v>
       </c>
       <c r="N2" t="n">
-        <v>1667.20245574077</v>
+        <v>1708.134701736408</v>
       </c>
       <c r="O2" t="n">
-        <v>40.83139056829647</v>
+        <v>41.32958627589209</v>
       </c>
       <c r="P2" t="n">
-        <v>281.1743428115504</v>
+        <v>282.5540617869004</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28029,28 +28367,28 @@
         <v>0.0308</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.006774870666733889</v>
+        <v>-0.05074282947962117</v>
       </c>
       <c r="J3" t="n">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="K3" t="n">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L3" t="n">
-        <v>5.032446673935986e-06</v>
+        <v>0.0002873099787953359</v>
       </c>
       <c r="M3" t="n">
-        <v>16.74522912769598</v>
+        <v>16.77601060436415</v>
       </c>
       <c r="N3" t="n">
-        <v>477.4202963934346</v>
+        <v>475.6261719223281</v>
       </c>
       <c r="O3" t="n">
-        <v>21.84994957416228</v>
+        <v>21.80885535561938</v>
       </c>
       <c r="P3" t="n">
-        <v>293.4891078994543</v>
+        <v>293.9493123731955</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28107,28 +28445,28 @@
         <v>0.0501</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1284095487078083</v>
+        <v>-0.131242049976323</v>
       </c>
       <c r="J4" t="n">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="K4" t="n">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003226223646010329</v>
+        <v>0.003438275556618575</v>
       </c>
       <c r="M4" t="n">
-        <v>12.93106442392974</v>
+        <v>12.85963498865816</v>
       </c>
       <c r="N4" t="n">
-        <v>265.6379168299927</v>
+        <v>263.2285849512888</v>
       </c>
       <c r="O4" t="n">
-        <v>16.29840227844413</v>
+        <v>16.22432078551484</v>
       </c>
       <c r="P4" t="n">
-        <v>301.5205675878646</v>
+        <v>301.5504819024432</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28185,28 +28523,28 @@
         <v>0.0504</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1166735203791551</v>
+        <v>-0.113569779327068</v>
       </c>
       <c r="J5" t="n">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="K5" t="n">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00322321208909826</v>
+        <v>0.003113522704946581</v>
       </c>
       <c r="M5" t="n">
-        <v>11.95539746546678</v>
+        <v>11.87671277321193</v>
       </c>
       <c r="N5" t="n">
-        <v>224.4792860443811</v>
+        <v>222.6405379337814</v>
       </c>
       <c r="O5" t="n">
-        <v>14.98263281417459</v>
+        <v>14.92114398877584</v>
       </c>
       <c r="P5" t="n">
-        <v>302.1385042495486</v>
+        <v>302.1063553664804</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28263,28 +28601,28 @@
         <v>0.0546</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01863486046203923</v>
+        <v>-0.01812950099476826</v>
       </c>
       <c r="J6" t="n">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="K6" t="n">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L6" t="n">
-        <v>7.930544843193221e-05</v>
+        <v>7.665723847716244e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>11.78700370170077</v>
+        <v>11.70291208209197</v>
       </c>
       <c r="N6" t="n">
-        <v>233.2897507909286</v>
+        <v>230.9374742760293</v>
       </c>
       <c r="O6" t="n">
-        <v>15.27382567633036</v>
+        <v>15.1966270690581</v>
       </c>
       <c r="P6" t="n">
-        <v>303.0145773308935</v>
+        <v>303.009359240151</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28341,28 +28679,28 @@
         <v>0.047</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2175580143091116</v>
+        <v>0.2076656414067895</v>
       </c>
       <c r="J7" t="n">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="K7" t="n">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01110875502277076</v>
+        <v>0.01032498965435369</v>
       </c>
       <c r="M7" t="n">
-        <v>11.94621423828137</v>
+        <v>11.90884282128987</v>
       </c>
       <c r="N7" t="n">
-        <v>229.7448677413081</v>
+        <v>227.9789219338948</v>
       </c>
       <c r="O7" t="n">
-        <v>15.15733709268578</v>
+        <v>15.09897088989494</v>
       </c>
       <c r="P7" t="n">
-        <v>301.0803980395927</v>
+        <v>301.1809085653325</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28419,28 +28757,28 @@
         <v>0.0425</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3035822449970237</v>
+        <v>0.2883441693119051</v>
       </c>
       <c r="J8" t="n">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="K8" t="n">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0189293320831202</v>
+        <v>0.01736966927980588</v>
       </c>
       <c r="M8" t="n">
-        <v>12.87832053620172</v>
+        <v>12.85301738723552</v>
       </c>
       <c r="N8" t="n">
-        <v>261.2904724934751</v>
+        <v>260.3121952721215</v>
       </c>
       <c r="O8" t="n">
-        <v>16.16448181951637</v>
+        <v>16.1341933567229</v>
       </c>
       <c r="P8" t="n">
-        <v>287.6480482960234</v>
+        <v>287.8022196840002</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28497,28 +28835,28 @@
         <v>0.0542</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4177523271636394</v>
+        <v>0.3929706721966983</v>
       </c>
       <c r="J9" t="n">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="K9" t="n">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04931949906389732</v>
+        <v>0.04423076563405826</v>
       </c>
       <c r="M9" t="n">
-        <v>10.1574799831788</v>
+        <v>10.19509539207593</v>
       </c>
       <c r="N9" t="n">
-        <v>178.2905759793255</v>
+        <v>178.8898465062894</v>
       </c>
       <c r="O9" t="n">
-        <v>13.35254941871871</v>
+        <v>13.37497089739972</v>
       </c>
       <c r="P9" t="n">
-        <v>286.8974124446112</v>
+        <v>287.1543797352359</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28575,28 +28913,28 @@
         <v>0.0858</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2975573544392184</v>
+        <v>0.2795442607109878</v>
       </c>
       <c r="J10" t="n">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="K10" t="n">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03477962476424801</v>
+        <v>0.03106678670245611</v>
       </c>
       <c r="M10" t="n">
-        <v>8.918910233234184</v>
+        <v>8.938370820763591</v>
       </c>
       <c r="N10" t="n">
-        <v>134.1257451750739</v>
+        <v>134.5739582220275</v>
       </c>
       <c r="O10" t="n">
-        <v>11.58126699351474</v>
+        <v>11.60060163189942</v>
       </c>
       <c r="P10" t="n">
-        <v>291.8283634518564</v>
+        <v>292.010862539596</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28653,28 +28991,28 @@
         <v>0.063</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4006803979896575</v>
+        <v>0.3819231128072583</v>
       </c>
       <c r="J11" t="n">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="K11" t="n">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06498473572497532</v>
+        <v>0.05995546227115778</v>
       </c>
       <c r="M11" t="n">
-        <v>8.59344693260411</v>
+        <v>8.644523476150685</v>
       </c>
       <c r="N11" t="n">
-        <v>124.6473585008781</v>
+        <v>124.8943856552044</v>
       </c>
       <c r="O11" t="n">
-        <v>11.16455814176621</v>
+        <v>11.17561567231105</v>
       </c>
       <c r="P11" t="n">
-        <v>298.2045857521904</v>
+        <v>298.3949977743519</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28731,28 +29069,28 @@
         <v>0.038</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5407664736629081</v>
+        <v>0.5131224394839504</v>
       </c>
       <c r="J12" t="n">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="K12" t="n">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="L12" t="n">
-        <v>0.09936165965260835</v>
+        <v>0.09056809630899665</v>
       </c>
       <c r="M12" t="n">
-        <v>9.482839333579133</v>
+        <v>9.549865781482341</v>
       </c>
       <c r="N12" t="n">
-        <v>143.3492189904874</v>
+        <v>144.6899480092236</v>
       </c>
       <c r="O12" t="n">
-        <v>11.97285341890092</v>
+        <v>12.02871348105123</v>
       </c>
       <c r="P12" t="n">
-        <v>295.5218322990278</v>
+        <v>295.8027586179687</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28803,28 +29141,28 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>0.4745940179942175</v>
+        <v>0.4482104003889189</v>
       </c>
       <c r="J13" t="n">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="K13" t="n">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07973521927984939</v>
+        <v>0.07192868561539101</v>
       </c>
       <c r="M13" t="n">
-        <v>9.127971467945201</v>
+        <v>9.202183819327072</v>
       </c>
       <c r="N13" t="n">
-        <v>138.1551301121109</v>
+        <v>139.5590237801214</v>
       </c>
       <c r="O13" t="n">
-        <v>11.75394104596883</v>
+        <v>11.81351022262737</v>
       </c>
       <c r="P13" t="n">
-        <v>292.4361965825569</v>
+        <v>292.7046699350254</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28881,28 +29219,28 @@
         <v>0.0349</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3573431130859948</v>
+        <v>0.3256996703699209</v>
       </c>
       <c r="J14" t="n">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="K14" t="n">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03705483951131827</v>
+        <v>0.03110124964752126</v>
       </c>
       <c r="M14" t="n">
-        <v>10.37807605370581</v>
+        <v>10.43596170214444</v>
       </c>
       <c r="N14" t="n">
-        <v>179.8560549710244</v>
+        <v>181.4510999327724</v>
       </c>
       <c r="O14" t="n">
-        <v>13.41104227757949</v>
+        <v>13.47037861133726</v>
       </c>
       <c r="P14" t="n">
-        <v>299.8946085823526</v>
+        <v>300.2145492078326</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28940,7 +29278,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O491"/>
+  <dimension ref="A1:O497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61267,6 +61605,412 @@
         </is>
       </c>
     </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:43+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr"/>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>-46.467549943468924,169.75789775118008</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr"/>
+      <c r="E492" t="inlineStr"/>
+      <c r="F492" t="inlineStr"/>
+      <c r="G492" t="inlineStr"/>
+      <c r="H492" t="inlineStr"/>
+      <c r="I492" t="inlineStr"/>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
+      <c r="L492" t="inlineStr"/>
+      <c r="M492" t="inlineStr"/>
+      <c r="N492" t="inlineStr"/>
+      <c r="O492" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr"/>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>-46.467460873856126,169.75778957718052</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>-46.468058748203106,169.75727806149092</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>-46.46858946878784,169.75671263426514</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>-46.46913185303122,169.75621581768252</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>-46.46969447564663,169.75571378383486</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>-46.47030658976202,169.755317212329</t>
+        </is>
+      </c>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>-46.4709031489342,169.75504086139196</t>
+        </is>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>-46.47149027986289,169.75484306884735</t>
+        </is>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>-46.47210483524839,169.75457095991032</t>
+        </is>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>-46.47276418245186,169.75438964415235</t>
+        </is>
+      </c>
+      <c r="M493" t="inlineStr">
+        <is>
+          <t>-46.473399058186814,169.75431895477135</t>
+        </is>
+      </c>
+      <c r="N493" t="inlineStr">
+        <is>
+          <t>-46.47401700800459,169.75438148514436</t>
+        </is>
+      </c>
+      <c r="O493" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>-46.46675566226297,169.75815349586102</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>-46.46742353760978,169.75774423288604</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>-46.46806806862776,169.75729181170558</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>-46.46858539103492,169.75670520702823</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>-46.46911886944646,169.7561887952474</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>-46.469685817887914,169.75568949338927</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>-46.47029196055097,169.75525449759658</t>
+        </is>
+      </c>
+      <c r="I494" t="inlineStr">
+        <is>
+          <t>-46.47088906285887,169.7549756573579</t>
+        </is>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>-46.471486099695724,169.7548263940528</t>
+        </is>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>-46.472105495125064,169.75457434190236</t>
+        </is>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>-46.472770997890386,169.7544720230319</t>
+        </is>
+      </c>
+      <c r="M494" t="inlineStr">
+        <is>
+          <t>-46.47340178537429,169.75437720340358</t>
+        </is>
+      </c>
+      <c r="N494" t="inlineStr">
+        <is>
+          <t>-46.47401505407482,169.75434628113763</t>
+        </is>
+      </c>
+      <c r="O494" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>-46.46652372454662,169.7578870391215</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>-46.46764342168473,169.75801127987742</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>-46.468172923298546,169.75744650194474</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>-46.46869152435168,169.75689851934908</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>-46.46920399852499,169.75636597290116</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>-46.46976324281038,169.75590671965531</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>-46.47033116758274,169.75542257668224</t>
+        </is>
+      </c>
+      <c r="I495" t="inlineStr">
+        <is>
+          <t>-46.4709351973036,169.75518921312417</t>
+        </is>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>-46.47151447132878,169.75493956946656</t>
+        </is>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>-46.47214562521881,169.75478001728484</t>
+        </is>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>-46.47278079173434,169.75459040348042</t>
+        </is>
+      </c>
+      <c r="M495" t="inlineStr">
+        <is>
+          <t>-46.47340994337502,169.75455144987075</t>
+        </is>
+      </c>
+      <c r="N495" t="inlineStr">
+        <is>
+          <t>-46.47402420432611,169.75451114317133</t>
+        </is>
+      </c>
+      <c r="O495" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>-46.46652773926446,169.75789165132048</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>-46.467390816716026,169.75770449393332</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>-46.46803544713469,169.75724368597488</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>-46.46859009039649,169.756713766466</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>-46.469125287080274,169.75620215211725</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>-46.469683179331895,169.75568209058838</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>-46.47026412797328,169.75513518115395</t>
+        </is>
+      </c>
+      <c r="I496" t="inlineStr">
+        <is>
+          <t>-46.47086783527737,169.75487739588422</t>
+        </is>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>-46.47145505070691,169.75470253921588</t>
+        </is>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>-46.47208115294254,169.75444958403142</t>
+        </is>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>-46.47275612971079,169.7542923108228</t>
+        </is>
+      </c>
+      <c r="M496" t="inlineStr">
+        <is>
+          <t>-46.47339210749008,169.754170501208</t>
+        </is>
+      </c>
+      <c r="N496" t="inlineStr">
+        <is>
+          <t>-46.47400674375178,169.7541965560233</t>
+        </is>
+      </c>
+      <c r="O496" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr"/>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>-46.467496694593436,169.75783308098963</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>-46.4680166803212,169.75721599976978</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>-46.46854280459711,169.75662764002186</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>-46.46910047792583,169.75615051744427</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>-46.46965951476185,169.75561569675077</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>-46.47023188591883,169.75499696238427</t>
+        </is>
+      </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>-46.47085070763906,169.75479811319192</t>
+        </is>
+      </c>
+      <c r="J497" t="inlineStr">
+        <is>
+          <t>-46.47142092996951,169.75456643190415</t>
+        </is>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>-46.47209053789619,169.75449768343756</t>
+        </is>
+      </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>-46.472747673633165,169.7541901034775</t>
+        </is>
+      </c>
+      <c r="M497" t="inlineStr">
+        <is>
+          <t>-46.473390349322976,169.75413295078536</t>
+        </is>
+      </c>
+      <c r="N497" t="inlineStr">
+        <is>
+          <t>-46.47399912938502,169.75405937292334</t>
+        </is>
+      </c>
+      <c r="O497" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0540/nzd0540.xlsx
+++ b/data/nzd0540/nzd0540.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O497"/>
+  <dimension ref="A1:O502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22994,7 +22994,9 @@
           <t>2025-07-16 22:14:48+00:00</t>
         </is>
       </c>
-      <c r="B497" t="inlineStr"/>
+      <c r="B497" t="n">
+        <v>258.99</v>
+      </c>
       <c r="C497" t="n">
         <v>278.67</v>
       </c>
@@ -23032,6 +23034,249 @@
         <v>277.92</v>
       </c>
       <c r="O497" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr"/>
+      <c r="C498" t="n">
+        <v>285.78</v>
+      </c>
+      <c r="D498" t="n">
+        <v>293.24</v>
+      </c>
+      <c r="E498" t="n">
+        <v>289.48</v>
+      </c>
+      <c r="F498" t="n">
+        <v>287.82</v>
+      </c>
+      <c r="G498" t="n">
+        <v>295.18</v>
+      </c>
+      <c r="H498" t="n">
+        <v>286.0971428571428</v>
+      </c>
+      <c r="I498" t="n">
+        <v>279.15</v>
+      </c>
+      <c r="J498" t="n">
+        <v>290.0685714285714</v>
+      </c>
+      <c r="K498" t="n">
+        <v>287.83</v>
+      </c>
+      <c r="L498" t="n">
+        <v>277.4071428571428</v>
+      </c>
+      <c r="M498" t="n">
+        <v>270.9869230769231</v>
+      </c>
+      <c r="N498" t="n">
+        <v>277.79</v>
+      </c>
+      <c r="O498" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>266.42</v>
+      </c>
+      <c r="C499" t="n">
+        <v>294.66</v>
+      </c>
+      <c r="D499" t="n">
+        <v>295.86</v>
+      </c>
+      <c r="E499" t="n">
+        <v>298.6244444444445</v>
+      </c>
+      <c r="F499" t="n">
+        <v>299.7244444444444</v>
+      </c>
+      <c r="G499" t="n">
+        <v>298.54</v>
+      </c>
+      <c r="H499" t="n">
+        <v>285.13</v>
+      </c>
+      <c r="I499" t="n">
+        <v>293.3644444444445</v>
+      </c>
+      <c r="J499" t="n">
+        <v>290.63</v>
+      </c>
+      <c r="K499" t="n">
+        <v>305.25</v>
+      </c>
+      <c r="L499" t="n">
+        <v>299.35</v>
+      </c>
+      <c r="M499" t="n">
+        <v>296.1407692307693</v>
+      </c>
+      <c r="N499" t="n">
+        <v>297.9066666666667</v>
+      </c>
+      <c r="O499" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:21:00+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>292.71</v>
+      </c>
+      <c r="C500" t="n">
+        <v>286.6</v>
+      </c>
+      <c r="D500" t="n">
+        <v>293.82</v>
+      </c>
+      <c r="E500" t="n">
+        <v>291.0133333333333</v>
+      </c>
+      <c r="F500" t="n">
+        <v>293.3933333333333</v>
+      </c>
+      <c r="G500" t="n">
+        <v>300.94</v>
+      </c>
+      <c r="H500" t="n">
+        <v>278.7171428571428</v>
+      </c>
+      <c r="I500" t="n">
+        <v>285.8133333333333</v>
+      </c>
+      <c r="J500" t="n">
+        <v>295.4085714285715</v>
+      </c>
+      <c r="K500" t="n">
+        <v>298.93</v>
+      </c>
+      <c r="L500" t="n">
+        <v>284.0971428571428</v>
+      </c>
+      <c r="M500" t="inlineStr"/>
+      <c r="N500" t="inlineStr"/>
+      <c r="O500" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:15:08+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>274.55</v>
+      </c>
+      <c r="C501" t="n">
+        <v>276.37</v>
+      </c>
+      <c r="D501" t="n">
+        <v>291.94</v>
+      </c>
+      <c r="E501" t="n">
+        <v>285.55</v>
+      </c>
+      <c r="F501" t="n">
+        <v>283.12</v>
+      </c>
+      <c r="G501" t="n">
+        <v>284.59</v>
+      </c>
+      <c r="H501" t="n">
+        <v>284.6957142857143</v>
+      </c>
+      <c r="I501" t="n">
+        <v>281.09</v>
+      </c>
+      <c r="J501" t="n">
+        <v>291.8928571428572</v>
+      </c>
+      <c r="K501" t="n">
+        <v>289.64</v>
+      </c>
+      <c r="L501" t="inlineStr"/>
+      <c r="M501" t="inlineStr"/>
+      <c r="N501" t="inlineStr"/>
+      <c r="O501" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:15:13+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>279.2</v>
+      </c>
+      <c r="C502" t="n">
+        <v>293.7</v>
+      </c>
+      <c r="D502" t="n">
+        <v>297.15</v>
+      </c>
+      <c r="E502" t="n">
+        <v>295.2511111111111</v>
+      </c>
+      <c r="F502" t="n">
+        <v>298.2611111111111</v>
+      </c>
+      <c r="G502" t="n">
+        <v>300.89</v>
+      </c>
+      <c r="H502" t="n">
+        <v>279.5028571428572</v>
+      </c>
+      <c r="I502" t="n">
+        <v>286.2811111111111</v>
+      </c>
+      <c r="J502" t="n">
+        <v>277.7114285714285</v>
+      </c>
+      <c r="K502" t="n">
+        <v>297.13</v>
+      </c>
+      <c r="L502" t="n">
+        <v>295.1528571428572</v>
+      </c>
+      <c r="M502" t="n">
+        <v>291.0561538461538</v>
+      </c>
+      <c r="N502" t="n">
+        <v>297.1266666666667</v>
+      </c>
+      <c r="O502" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -23048,7 +23293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B506"/>
+  <dimension ref="A1:B511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28116,6 +28361,56 @@
       </c>
       <c r="B506" t="n">
         <v>0.12</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>-1.02</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -28289,28 +28584,28 @@
         <v>0.0329</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06323440166686195</v>
+        <v>0.03577264181379281</v>
       </c>
       <c r="J2" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K2" t="n">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000127146496797792</v>
+        <v>4.179285774752461e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>30.16260793668308</v>
+        <v>29.92471049066835</v>
       </c>
       <c r="N2" t="n">
-        <v>1708.134701736408</v>
+        <v>1684.945570206194</v>
       </c>
       <c r="O2" t="n">
-        <v>41.32958627589209</v>
+        <v>41.04808850855536</v>
       </c>
       <c r="P2" t="n">
-        <v>282.5540617869004</v>
+        <v>282.8393644411187</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28367,28 +28662,28 @@
         <v>0.0308</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.05074282947962117</v>
+        <v>-0.06321374303023855</v>
       </c>
       <c r="J3" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K3" t="n">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002873099787953359</v>
+        <v>0.0004559499080873941</v>
       </c>
       <c r="M3" t="n">
-        <v>16.77601060436415</v>
+        <v>16.64864684563084</v>
       </c>
       <c r="N3" t="n">
-        <v>475.6261719223281</v>
+        <v>470.3809104436226</v>
       </c>
       <c r="O3" t="n">
-        <v>21.80885535561938</v>
+        <v>21.68826665373751</v>
       </c>
       <c r="P3" t="n">
-        <v>293.9493123731955</v>
+        <v>294.0809618901989</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28445,28 +28740,28 @@
         <v>0.0501</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.131242049976323</v>
+        <v>-0.1399491650522708</v>
       </c>
       <c r="J4" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K4" t="n">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003438275556618575</v>
+        <v>0.003997181737917521</v>
       </c>
       <c r="M4" t="n">
-        <v>12.85963498865816</v>
+        <v>12.74664625478727</v>
       </c>
       <c r="N4" t="n">
-        <v>263.2285849512888</v>
+        <v>260.1436004185913</v>
       </c>
       <c r="O4" t="n">
-        <v>16.22432078551484</v>
+        <v>16.12896774187956</v>
       </c>
       <c r="P4" t="n">
-        <v>301.5504819024432</v>
+        <v>301.6429739120593</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28523,28 +28818,28 @@
         <v>0.0504</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.113569779327068</v>
+        <v>-0.1299536567269209</v>
       </c>
       <c r="J5" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K5" t="n">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003113522704946581</v>
+        <v>0.004151878538197762</v>
       </c>
       <c r="M5" t="n">
-        <v>11.87671277321193</v>
+        <v>11.81765569370343</v>
       </c>
       <c r="N5" t="n">
-        <v>222.6405379337814</v>
+        <v>220.7426124403651</v>
       </c>
       <c r="O5" t="n">
-        <v>14.92114398877584</v>
+        <v>14.85740934484761</v>
       </c>
       <c r="P5" t="n">
-        <v>302.1063553664804</v>
+        <v>302.2777945213145</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28601,28 +28896,28 @@
         <v>0.0546</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01812950099476826</v>
+        <v>-0.04117456682150934</v>
       </c>
       <c r="J6" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K6" t="n">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="L6" t="n">
-        <v>7.665723847716244e-05</v>
+        <v>0.0004015655143242425</v>
       </c>
       <c r="M6" t="n">
-        <v>11.70291208209197</v>
+        <v>11.67874301147649</v>
       </c>
       <c r="N6" t="n">
-        <v>230.9374742760293</v>
+        <v>229.7623129249019</v>
       </c>
       <c r="O6" t="n">
-        <v>15.1966270690581</v>
+        <v>15.15791255169728</v>
       </c>
       <c r="P6" t="n">
-        <v>303.009359240151</v>
+        <v>303.2509299362856</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28679,28 +28974,28 @@
         <v>0.047</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2076656414067895</v>
+        <v>0.183757711902037</v>
       </c>
       <c r="J7" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K7" t="n">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01032498965435369</v>
+        <v>0.008230225016240489</v>
       </c>
       <c r="M7" t="n">
-        <v>11.90884282128987</v>
+        <v>11.88749712111752</v>
       </c>
       <c r="N7" t="n">
-        <v>227.9789219338948</v>
+        <v>226.9355875707332</v>
       </c>
       <c r="O7" t="n">
-        <v>15.09897088989494</v>
+        <v>15.0643814201159</v>
       </c>
       <c r="P7" t="n">
-        <v>301.1809085653325</v>
+        <v>301.42577818932</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28757,28 +29052,28 @@
         <v>0.0425</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2883441693119051</v>
+        <v>0.2599348068782892</v>
       </c>
       <c r="J8" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K8" t="n">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01736966927980588</v>
+        <v>0.0143909666341846</v>
       </c>
       <c r="M8" t="n">
-        <v>12.85301738723552</v>
+        <v>12.84941785915134</v>
       </c>
       <c r="N8" t="n">
-        <v>260.3121952721215</v>
+        <v>259.0461017597493</v>
       </c>
       <c r="O8" t="n">
-        <v>16.1341933567229</v>
+        <v>16.09490918768259</v>
       </c>
       <c r="P8" t="n">
-        <v>287.8022196840002</v>
+        <v>288.0918202487292</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28835,28 +29130,28 @@
         <v>0.0542</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3929706721966983</v>
+        <v>0.365030040792647</v>
       </c>
       <c r="J9" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K9" t="n">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04423076563405826</v>
+        <v>0.03884235834272154</v>
       </c>
       <c r="M9" t="n">
-        <v>10.19509539207593</v>
+        <v>10.2163746860553</v>
       </c>
       <c r="N9" t="n">
-        <v>178.8898465062894</v>
+        <v>178.7520738142011</v>
       </c>
       <c r="O9" t="n">
-        <v>13.37497089739972</v>
+        <v>13.3698195131498</v>
       </c>
       <c r="P9" t="n">
-        <v>287.1543797352359</v>
+        <v>287.4463546498025</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28913,28 +29208,28 @@
         <v>0.0858</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2795442607109878</v>
+        <v>0.256756825678285</v>
       </c>
       <c r="J10" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K10" t="n">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03106678670245611</v>
+        <v>0.02662639313992365</v>
       </c>
       <c r="M10" t="n">
-        <v>8.938370820763591</v>
+        <v>8.954932612150257</v>
       </c>
       <c r="N10" t="n">
-        <v>134.5739582220275</v>
+        <v>134.575910091152</v>
       </c>
       <c r="O10" t="n">
-        <v>11.60060163189942</v>
+        <v>11.60068575952094</v>
       </c>
       <c r="P10" t="n">
-        <v>292.010862539596</v>
+        <v>292.2435762624412</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28991,28 +29286,28 @@
         <v>0.063</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3819231128072583</v>
+        <v>0.3535500348163118</v>
       </c>
       <c r="J11" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K11" t="n">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05995546227115778</v>
+        <v>0.05207983529028459</v>
       </c>
       <c r="M11" t="n">
-        <v>8.644523476150685</v>
+        <v>8.715346750138156</v>
       </c>
       <c r="N11" t="n">
-        <v>124.8943856552044</v>
+        <v>125.7076460558732</v>
       </c>
       <c r="O11" t="n">
-        <v>11.17561567231105</v>
+        <v>11.2119421179327</v>
       </c>
       <c r="P11" t="n">
-        <v>298.3949977743519</v>
+        <v>298.6852758671459</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29069,28 +29364,28 @@
         <v>0.038</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5131224394839504</v>
+        <v>0.4761858447344411</v>
       </c>
       <c r="J12" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K12" t="n">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="L12" t="n">
-        <v>0.09056809630899665</v>
+        <v>0.0780911492666696</v>
       </c>
       <c r="M12" t="n">
-        <v>9.549865781482341</v>
+        <v>9.67548267596252</v>
       </c>
       <c r="N12" t="n">
-        <v>144.6899480092236</v>
+        <v>147.8807135936274</v>
       </c>
       <c r="O12" t="n">
-        <v>12.02871348105123</v>
+        <v>12.16062143122741</v>
       </c>
       <c r="P12" t="n">
-        <v>295.8027586179687</v>
+        <v>296.1809414200262</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29141,28 +29436,28 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>0.4482104003889189</v>
+        <v>0.4221115896681996</v>
       </c>
       <c r="J13" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K13" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07192868561539101</v>
+        <v>0.06382176185468813</v>
       </c>
       <c r="M13" t="n">
-        <v>9.202183819327072</v>
+        <v>9.284879793729749</v>
       </c>
       <c r="N13" t="n">
-        <v>139.5590237801214</v>
+        <v>141.8152011630898</v>
       </c>
       <c r="O13" t="n">
-        <v>11.81351022262737</v>
+        <v>11.90861877646143</v>
       </c>
       <c r="P13" t="n">
-        <v>292.7046699350254</v>
+        <v>292.9720377776335</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29219,28 +29514,28 @@
         <v>0.0349</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3256996703699209</v>
+        <v>0.2995035698574681</v>
       </c>
       <c r="J14" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K14" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03110124964752126</v>
+        <v>0.02638872554768057</v>
       </c>
       <c r="M14" t="n">
-        <v>10.43596170214444</v>
+        <v>10.50095297169888</v>
       </c>
       <c r="N14" t="n">
-        <v>181.4510999327724</v>
+        <v>183.1191733732087</v>
       </c>
       <c r="O14" t="n">
-        <v>13.47037861133726</v>
+        <v>13.53215331620244</v>
       </c>
       <c r="P14" t="n">
-        <v>300.2145492078326</v>
+        <v>300.4812589121283</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29278,7 +29573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O497"/>
+  <dimension ref="A1:O502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61944,7 +62239,11 @@
           <t>2025-07-16 22:14:48+00:00</t>
         </is>
       </c>
-      <c r="B497" t="inlineStr"/>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>-46.46695083321764,169.758377716134</t>
+        </is>
+      </c>
       <c r="C497" t="inlineStr">
         <is>
           <t>-46.467496694593436,169.75783308098963</t>
@@ -62006,6 +62305,367 @@
         </is>
       </c>
       <c r="O497" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr"/>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>-46.46754567253837,169.7578925641744</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>-46.46804653088736,169.75726003756802</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>-46.46853834765715,169.75661952215657</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>-46.469059422120594,169.7560650692294</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>-46.46966743044099,169.75563790513587</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>-46.47027698612151,169.7551903031149</t>
+        </is>
+      </c>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>-46.470867972441376,169.7548780308085</t>
+        </is>
+      </c>
+      <c r="J498" t="inlineStr">
+        <is>
+          <t>-46.471468485128796,169.7547561292246</t>
+        </is>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>-46.47207479853557,169.75441701673518</t>
+        </is>
+      </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>-46.47274237937368,169.7541261131314</t>
+        </is>
+      </c>
+      <c r="M498" t="inlineStr">
+        <is>
+          <t>-46.47338484930035,169.75401548461207</t>
+        </is>
+      </c>
+      <c r="N498" t="inlineStr">
+        <is>
+          <t>-46.47399903576473,169.75405768624617</t>
+        </is>
+      </c>
+      <c r="O498" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>-46.46700316516591,169.75843783753874</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>-46.46760684326486,169.7579668555585</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>-46.46806303056056,169.75728437915654</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>-46.46858950608438,169.75671270219718</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>-46.46912054088368,169.75619227396965</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>-46.469681282869466,169.7556767698257</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>-46.470274204095475,169.7551783767567</t>
+        </is>
+      </c>
+      <c r="I499" t="inlineStr">
+        <is>
+          <t>-46.470906118813346,169.7550546089024</t>
+        </is>
+      </c>
+      <c r="J499" t="inlineStr">
+        <is>
+          <t>-46.47147020715175,169.75476299839602</t>
+        </is>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>-46.47211737288856,169.75463521777382</t>
+        </is>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>-46.47276584125744,169.75440969423155</t>
+        </is>
+      </c>
+      <c r="M499" t="inlineStr">
+        <is>
+          <t>-46.4734001437335,169.75434214034334</t>
+        </is>
+      </c>
+      <c r="N499" t="inlineStr">
+        <is>
+          <t>-46.47401352260881,169.7543186888102</t>
+        </is>
+      </c>
+      <c r="O499" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:21:00+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>-46.467188334100456,169.75865056951122</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>-46.46755132118841,169.7578994244079</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>-46.468050183487186,169.7572654261627</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>-46.46854692586747,169.756635146501</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>-46.469088036260565,169.7561246229527</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>-46.46969117745342,169.75570453033086</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>-46.470255757218524,169.75509929640208</t>
+        </is>
+      </c>
+      <c r="I500" t="inlineStr">
+        <is>
+          <t>-46.47088585442511,169.75496080563963</t>
+        </is>
+      </c>
+      <c r="J500" t="inlineStr">
+        <is>
+          <t>-46.47148486404838,169.75482146502597</t>
+        </is>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>-46.47210192690184,169.7545560540946</t>
+        </is>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>-46.47274953257275,169.754212572105</t>
+        </is>
+      </c>
+      <c r="M500" t="inlineStr"/>
+      <c r="N500" t="inlineStr"/>
+      <c r="O500" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:15:08+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>-46.46706042741242,169.75850362327148</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>-46.467480850807675,169.75781383891322</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>-46.4680383440248,169.75724795968608</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>-46.468516361321925,169.7565794763051</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>-46.4690352917523,169.75601484753835</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>-46.46962377047143,169.7555154120943</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>-46.470272954854444,169.75517302134662</t>
+        </is>
+      </c>
+      <c r="I501" t="inlineStr">
+        <is>
+          <t>-46.470873178707826,169.75490213032825</t>
+        </is>
+      </c>
+      <c r="J501" t="inlineStr">
+        <is>
+          <t>-46.47147408060649,169.75477844966366</t>
+        </is>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>-46.47207922218138,169.75443968858286</t>
+        </is>
+      </c>
+      <c r="L501" t="inlineStr"/>
+      <c r="M501" t="inlineStr"/>
+      <c r="N501" t="inlineStr"/>
+      <c r="O501" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:15:13+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>-46.46709317886618,169.7585412498592</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>-46.4676002302155,169.75795882404952</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>-46.4680711544437,169.75729636414258</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>-46.46857063404109,169.75667832859182</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>-46.46911302797225,169.75617663753042</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>-46.46969097131632,169.7557039519869</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>-46.47025801736448,169.7551089854601</t>
+        </is>
+      </c>
+      <c r="I502" t="inlineStr">
+        <is>
+          <t>-46.47088710976977,169.75496661658124</t>
+        </is>
+      </c>
+      <c r="J502" t="inlineStr">
+        <is>
+          <t>-46.471430582994984,169.75460493765314</t>
+        </is>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>-46.47209752771858,169.7545335074858</t>
+        </is>
+      </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>-46.472761353615155,169.75435545193946</t>
+        </is>
+      </c>
+      <c r="M502" t="inlineStr">
+        <is>
+          <t>-46.473397052181475,169.75427610991525</t>
+        </is>
+      </c>
+      <c r="N502" t="inlineStr">
+        <is>
+          <t>-46.47401296090959,169.75430856874075</t>
+        </is>
+      </c>
+      <c r="O502" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0540/nzd0540.xlsx
+++ b/data/nzd0540/nzd0540.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O502"/>
+  <dimension ref="A1:O503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23282,6 +23282,57 @@
         </is>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:21:09+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>277.04</v>
+      </c>
+      <c r="C503" t="n">
+        <v>282.91</v>
+      </c>
+      <c r="D503" t="n">
+        <v>293.21</v>
+      </c>
+      <c r="E503" t="n">
+        <v>295.1933333333333</v>
+      </c>
+      <c r="F503" t="n">
+        <v>295.0333333333333</v>
+      </c>
+      <c r="G503" t="n">
+        <v>293.75</v>
+      </c>
+      <c r="H503" t="n">
+        <v>288.83</v>
+      </c>
+      <c r="I503" t="n">
+        <v>288.7133333333333</v>
+      </c>
+      <c r="J503" t="n">
+        <v>292.02</v>
+      </c>
+      <c r="K503" t="n">
+        <v>293.63</v>
+      </c>
+      <c r="L503" t="n">
+        <v>290.83</v>
+      </c>
+      <c r="M503" t="n">
+        <v>288.0684615384615</v>
+      </c>
+      <c r="N503" t="n">
+        <v>295.33</v>
+      </c>
+      <c r="O503" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23293,7 +23344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B511"/>
+  <dimension ref="A1:B512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28411,6 +28462,16 @@
       </c>
       <c r="B511" t="n">
         <v>0.32</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>-0.21</v>
       </c>
     </row>
   </sheetData>
@@ -29573,7 +29634,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O502"/>
+  <dimension ref="A1:O503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62671,6 +62732,83 @@
         </is>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:21:09+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>-46.467077965289064,169.75852377169676</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>-46.46752590226025,169.75786855336835</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>-46.46804634195978,169.75725975884762</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>-46.46857031080443,169.7566777398478</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>-46.46909645620521,169.7561421471465</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>-46.46966153490953,169.7556213645151</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>-46.47028484729044,169.7552240034515</t>
+        </is>
+      </c>
+      <c r="I503" t="inlineStr">
+        <is>
+          <t>-46.47089363696098,169.75499683072155</t>
+        </is>
+      </c>
+      <c r="J503" t="inlineStr">
+        <is>
+          <t>-46.471474470580894,169.7547800052778</t>
+        </is>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>-46.47208897373862,169.75448966686864</t>
+        </is>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>-46.47275673153077,169.75429958497412</t>
+        </is>
+      </c>
+      <c r="M503" t="inlineStr">
+        <is>
+          <t>-46.473395235584604,169.75423731079977</t>
+        </is>
+      </c>
+      <c r="N503" t="inlineStr">
+        <is>
+          <t>-46.47401166707763,169.75428525798344</t>
+        </is>
+      </c>
+      <c r="O503" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0540/nzd0540.xlsx
+++ b/data/nzd0540/nzd0540.xlsx
@@ -28645,28 +28645,28 @@
         <v>0.0329</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03577264181379281</v>
+        <v>0.03197661183953856</v>
       </c>
       <c r="J2" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K2" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L2" t="n">
-        <v>4.179285774752461e-05</v>
+        <v>3.358106286022178e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>29.92471049066835</v>
+        <v>29.85598006570874</v>
       </c>
       <c r="N2" t="n">
-        <v>1684.945570206194</v>
+        <v>1679.836354395528</v>
       </c>
       <c r="O2" t="n">
-        <v>41.04808850855536</v>
+        <v>40.98580674325598</v>
       </c>
       <c r="P2" t="n">
-        <v>282.8393644411187</v>
+        <v>282.8791588481517</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28723,28 +28723,28 @@
         <v>0.0308</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06321374303023855</v>
+        <v>-0.06778246505690379</v>
       </c>
       <c r="J3" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K3" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004559499080873941</v>
+        <v>0.0005264764128938282</v>
       </c>
       <c r="M3" t="n">
-        <v>16.64864684563084</v>
+        <v>16.63234822663946</v>
       </c>
       <c r="N3" t="n">
-        <v>470.3809104436226</v>
+        <v>469.4008219476253</v>
       </c>
       <c r="O3" t="n">
-        <v>21.68826665373751</v>
+        <v>21.66565997027612</v>
       </c>
       <c r="P3" t="n">
-        <v>294.0809618901989</v>
+        <v>294.1294282350838</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28801,28 +28801,28 @@
         <v>0.0501</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1399491650522708</v>
+        <v>-0.1421825027018746</v>
       </c>
       <c r="J4" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K4" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003997181737917521</v>
+        <v>0.004143518525611789</v>
       </c>
       <c r="M4" t="n">
-        <v>12.74664625478727</v>
+        <v>12.72697596638321</v>
       </c>
       <c r="N4" t="n">
-        <v>260.1436004185913</v>
+        <v>259.5503082327737</v>
       </c>
       <c r="O4" t="n">
-        <v>16.12896774187956</v>
+        <v>16.11056511214841</v>
       </c>
       <c r="P4" t="n">
-        <v>301.6429739120593</v>
+        <v>301.6668166872208</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28879,28 +28879,28 @@
         <v>0.0504</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1299536567269209</v>
+        <v>-0.1316489236250999</v>
       </c>
       <c r="J5" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K5" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004151878538197762</v>
+        <v>0.004279412757959622</v>
       </c>
       <c r="M5" t="n">
-        <v>11.81765569370343</v>
+        <v>11.79738097005599</v>
       </c>
       <c r="N5" t="n">
-        <v>220.7426124403651</v>
+        <v>220.2274284650941</v>
       </c>
       <c r="O5" t="n">
-        <v>14.85740934484761</v>
+        <v>14.84006160583891</v>
       </c>
       <c r="P5" t="n">
-        <v>302.2777945213145</v>
+        <v>302.2956212822521</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28957,28 +28957,28 @@
         <v>0.0546</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04117456682150934</v>
+        <v>-0.04445256842399631</v>
       </c>
       <c r="J6" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K6" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004015655143242425</v>
+        <v>0.000469921619350222</v>
       </c>
       <c r="M6" t="n">
-        <v>11.67874301147649</v>
+        <v>11.66697465043546</v>
       </c>
       <c r="N6" t="n">
-        <v>229.7623129249019</v>
+        <v>229.314708753467</v>
       </c>
       <c r="O6" t="n">
-        <v>15.15791255169728</v>
+        <v>15.14314065025703</v>
       </c>
       <c r="P6" t="n">
-        <v>303.2509299362856</v>
+        <v>303.2854662775833</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29035,28 +29035,28 @@
         <v>0.047</v>
       </c>
       <c r="I7" t="n">
-        <v>0.183757711902037</v>
+        <v>0.1780916768664685</v>
       </c>
       <c r="J7" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K7" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L7" t="n">
-        <v>0.008230225016240489</v>
+        <v>0.007757424554314052</v>
       </c>
       <c r="M7" t="n">
-        <v>11.88749712111752</v>
+        <v>11.88768165145148</v>
       </c>
       <c r="N7" t="n">
-        <v>226.9355875707332</v>
+        <v>226.7545126396475</v>
       </c>
       <c r="O7" t="n">
-        <v>15.0643814201159</v>
+        <v>15.05837018537025</v>
       </c>
       <c r="P7" t="n">
-        <v>301.42577818932</v>
+        <v>301.4840996638266</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29113,28 +29113,28 @@
         <v>0.0425</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2599348068782892</v>
+        <v>0.257181976424582</v>
       </c>
       <c r="J8" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K8" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0143909666341846</v>
+        <v>0.0141532258127256</v>
       </c>
       <c r="M8" t="n">
-        <v>12.84941785915134</v>
+        <v>12.83246257793822</v>
       </c>
       <c r="N8" t="n">
-        <v>259.0461017597493</v>
+        <v>258.4911811406283</v>
       </c>
       <c r="O8" t="n">
-        <v>16.09490918768259</v>
+        <v>16.07766093499388</v>
       </c>
       <c r="P8" t="n">
-        <v>288.0918202487292</v>
+        <v>288.120013101452</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29191,28 +29191,28 @@
         <v>0.0542</v>
       </c>
       <c r="I9" t="n">
-        <v>0.365030040792647</v>
+        <v>0.361252942619313</v>
       </c>
       <c r="J9" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K9" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03884235834272154</v>
+        <v>0.03821073154970844</v>
       </c>
       <c r="M9" t="n">
-        <v>10.2163746860553</v>
+        <v>10.211083380286</v>
       </c>
       <c r="N9" t="n">
-        <v>178.7520738142011</v>
+        <v>178.4771303942603</v>
       </c>
       <c r="O9" t="n">
-        <v>13.3698195131498</v>
+        <v>13.35953331498748</v>
       </c>
       <c r="P9" t="n">
-        <v>287.4463546498025</v>
+        <v>287.4860167912402</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29269,28 +29269,28 @@
         <v>0.0858</v>
       </c>
       <c r="I10" t="n">
-        <v>0.256756825678285</v>
+        <v>0.2536427025522574</v>
       </c>
       <c r="J10" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K10" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02662639313992365</v>
+        <v>0.02609787074812653</v>
       </c>
       <c r="M10" t="n">
-        <v>8.954932612150257</v>
+        <v>8.950064457512809</v>
       </c>
       <c r="N10" t="n">
-        <v>134.575910091152</v>
+        <v>134.3618688527185</v>
       </c>
       <c r="O10" t="n">
-        <v>11.60068575952094</v>
+        <v>11.59145671832141</v>
       </c>
       <c r="P10" t="n">
-        <v>292.2435762624412</v>
+        <v>292.2755224361233</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29347,28 +29347,28 @@
         <v>0.063</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3535500348163118</v>
+        <v>0.3470848730803217</v>
       </c>
       <c r="J11" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K11" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05207983529028459</v>
+        <v>0.05032806485565411</v>
       </c>
       <c r="M11" t="n">
-        <v>8.715346750138156</v>
+        <v>8.734919380035461</v>
       </c>
       <c r="N11" t="n">
-        <v>125.7076460558732</v>
+        <v>125.8911738808474</v>
       </c>
       <c r="O11" t="n">
-        <v>11.2119421179327</v>
+        <v>11.22012361254757</v>
       </c>
       <c r="P11" t="n">
-        <v>298.6852758671459</v>
+        <v>298.7517415293362</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29425,28 +29425,28 @@
         <v>0.038</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4761858447344411</v>
+        <v>0.4680155985834513</v>
       </c>
       <c r="J12" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K12" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0780911492666696</v>
+        <v>0.07560740067046545</v>
       </c>
       <c r="M12" t="n">
-        <v>9.67548267596252</v>
+        <v>9.700255385527448</v>
       </c>
       <c r="N12" t="n">
-        <v>147.8807135936274</v>
+        <v>148.2851244736998</v>
       </c>
       <c r="O12" t="n">
-        <v>12.16062143122741</v>
+        <v>12.17723796571701</v>
       </c>
       <c r="P12" t="n">
-        <v>296.1809414200262</v>
+        <v>296.2650245373272</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29497,28 +29497,28 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>0.4221115896681996</v>
+        <v>0.4145215671724714</v>
       </c>
       <c r="J13" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K13" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06382176185468813</v>
+        <v>0.06172826315459601</v>
       </c>
       <c r="M13" t="n">
-        <v>9.284879793729749</v>
+        <v>9.306723607552406</v>
       </c>
       <c r="N13" t="n">
-        <v>141.8152011630898</v>
+        <v>142.0827669979512</v>
       </c>
       <c r="O13" t="n">
-        <v>11.90861877646143</v>
+        <v>11.91984760800033</v>
       </c>
       <c r="P13" t="n">
-        <v>292.9720377776335</v>
+        <v>293.0502020179342</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29575,28 +29575,28 @@
         <v>0.0349</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2995035698574681</v>
+        <v>0.2931066393628278</v>
       </c>
       <c r="J14" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K14" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02638872554768057</v>
+        <v>0.0253711470416399</v>
       </c>
       <c r="M14" t="n">
-        <v>10.50095297169888</v>
+        <v>10.50958884711894</v>
       </c>
       <c r="N14" t="n">
-        <v>183.1191733732087</v>
+        <v>183.0744116859717</v>
       </c>
       <c r="O14" t="n">
-        <v>13.53215331620244</v>
+        <v>13.53049931399324</v>
       </c>
       <c r="P14" t="n">
-        <v>300.4812589121283</v>
+        <v>300.5467461587618</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">

--- a/data/nzd0540/nzd0540.xlsx
+++ b/data/nzd0540/nzd0540.xlsx
@@ -28636,13 +28636,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0185</v>
+        <v>0.0251</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0329</v>
+        <v>0.0362</v>
       </c>
       <c r="I2" t="n">
         <v>0.03197661183953863</v>
@@ -28714,13 +28714,13 @@
         <v>0.08342963222469839</v>
       </c>
       <c r="F3" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>0.024</v>
+        <v>0.029</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0308</v>
+        <v>0.0368</v>
       </c>
       <c r="I3" t="n">
         <v>-0.06778246505690405</v>
@@ -28792,13 +28792,13 @@
         <v>0.1667513068377005</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0369</v>
+        <v>0.0425</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0501</v>
+        <v>0.0577</v>
       </c>
       <c r="I4" t="n">
         <v>-0.1421825027018746</v>
@@ -28870,13 +28870,13 @@
         <v>0.2500647210354288</v>
       </c>
       <c r="F5" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0382</v>
+        <v>0.0491</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0504</v>
+        <v>0.0713</v>
       </c>
       <c r="I5" t="n">
         <v>-0.1316621253582014</v>
@@ -28951,10 +28951,10 @@
         <v>0.045</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0394</v>
+        <v>0.0386</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0546</v>
+        <v>0.0501</v>
       </c>
       <c r="I6" t="n">
         <v>-0.0444663966933598</v>
@@ -29029,10 +29029,10 @@
         <v>0.04</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0345</v>
+        <v>0.0384</v>
       </c>
       <c r="H7" t="n">
-        <v>0.047</v>
+        <v>0.0465</v>
       </c>
       <c r="I7" t="n">
         <v>0.1780916768664685</v>
@@ -29107,10 +29107,10 @@
         <v>0.035</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0306</v>
+        <v>0.0339</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0425</v>
+        <v>0.0385</v>
       </c>
       <c r="I8" t="n">
         <v>0.2572119449509491</v>
@@ -29185,10 +29185,10 @@
         <v>0.045</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0372</v>
+        <v>0.0406</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0542</v>
+        <v>0.0539</v>
       </c>
       <c r="I9" t="n">
         <v>0.3612453066512334</v>
@@ -29260,13 +29260,13 @@
         <v>0.6668676317059306</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0571</v>
+        <v>0.0542</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0858</v>
+        <v>0.0696</v>
       </c>
       <c r="I10" t="n">
         <v>0.2536332810724232</v>
@@ -29338,13 +29338,13 @@
         <v>0.7500664706323096</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0442</v>
+        <v>0.0545</v>
       </c>
       <c r="H11" t="n">
-        <v>0.063</v>
+        <v>0.0631</v>
       </c>
       <c r="I11" t="n">
         <v>0.3470848730803219</v>
@@ -29416,13 +29416,13 @@
         <v>0.8332793385746818</v>
       </c>
       <c r="F12" t="n">
-        <v>0.035</v>
+        <v>0.06</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0292</v>
+        <v>0.0543</v>
       </c>
       <c r="H12" t="n">
-        <v>0.038</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I12" t="n">
         <v>0.4680419388409601</v>
@@ -29493,9 +29493,15 @@
       <c r="E13" t="n">
         <v>0.916708970801195</v>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0477</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0606</v>
+      </c>
       <c r="I13" t="n">
         <v>0.4145163460272703</v>
       </c>
@@ -29569,10 +29575,10 @@
         <v>0.03</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0276</v>
+        <v>0.0286</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0349</v>
+        <v>0.0305</v>
       </c>
       <c r="I14" t="n">
         <v>0.293097717898062</v>

--- a/data/nzd0540/nzd0540.xlsx
+++ b/data/nzd0540/nzd0540.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O502"/>
+  <dimension ref="A1:O503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26045,6 +26045,57 @@
       <c r="O502" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:14:52+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>254.84</v>
+      </c>
+      <c r="C503" t="n">
+        <v>283.89</v>
+      </c>
+      <c r="D503" t="n">
+        <v>296.15</v>
+      </c>
+      <c r="E503" t="n">
+        <v>296.82</v>
+      </c>
+      <c r="F503" t="n">
+        <v>297.14</v>
+      </c>
+      <c r="G503" t="n">
+        <v>298.46</v>
+      </c>
+      <c r="H503" t="n">
+        <v>284.61</v>
+      </c>
+      <c r="I503" t="n">
+        <v>287.4</v>
+      </c>
+      <c r="J503" t="n">
+        <v>291.18</v>
+      </c>
+      <c r="K503" t="n">
+        <v>300.27</v>
+      </c>
+      <c r="L503" t="n">
+        <v>298.08</v>
+      </c>
+      <c r="M503" t="n">
+        <v>292.77</v>
+      </c>
+      <c r="N503" t="n">
+        <v>295.74</v>
+      </c>
+      <c r="O503" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -26059,7 +26110,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B512"/>
+  <dimension ref="A1:B513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31187,6 +31238,16 @@
       </c>
       <c r="B512" t="n">
         <v>-0.21</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -31360,28 +31421,28 @@
         <v>0.0362</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2154746706238101</v>
+        <v>0.2029268408319183</v>
       </c>
       <c r="J2" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K2" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003134644295008537</v>
+        <v>0.002786095470556305</v>
       </c>
       <c r="M2" t="n">
-        <v>20.687975077079</v>
+        <v>20.71002532712754</v>
       </c>
       <c r="N2" t="n">
-        <v>772.1186461243605</v>
+        <v>772.4932280070223</v>
       </c>
       <c r="O2" t="n">
-        <v>27.78702298059942</v>
+        <v>27.79376239387216</v>
       </c>
       <c r="P2" t="n">
-        <v>280.2746968256063</v>
+        <v>280.4074702489409</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -31436,34 +31497,34 @@
         <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>0.029</v>
+        <v>0.0291</v>
       </c>
       <c r="H3" t="n">
         <v>0.0368</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.222296779177533</v>
+        <v>-0.2258009141166176</v>
       </c>
       <c r="J3" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K3" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01336195533888807</v>
+        <v>0.01382792593504323</v>
       </c>
       <c r="M3" t="n">
-        <v>10.8809586002691</v>
+        <v>10.87922608634554</v>
       </c>
       <c r="N3" t="n">
-        <v>193.2950816649232</v>
+        <v>193.0626961486976</v>
       </c>
       <c r="O3" t="n">
-        <v>13.9030601546898</v>
+        <v>13.89470028999178</v>
       </c>
       <c r="P3" t="n">
-        <v>298.4662239144725</v>
+        <v>298.5028720552414</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31514,34 +31575,34 @@
         <v>0.05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0425</v>
+        <v>0.0426</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0577</v>
+        <v>0.0578</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2530842554619794</v>
+        <v>-0.2538998312729997</v>
       </c>
       <c r="J4" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K4" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02815981214024743</v>
+        <v>0.02845205652584049</v>
       </c>
       <c r="M4" t="n">
-        <v>8.580834050234174</v>
+        <v>8.568254330146134</v>
       </c>
       <c r="N4" t="n">
-        <v>117.1013706789386</v>
+        <v>116.8763710053707</v>
       </c>
       <c r="O4" t="n">
-        <v>10.82133867314662</v>
+        <v>10.81093756366073</v>
       </c>
       <c r="P4" t="n">
-        <v>304.7992647808991</v>
+        <v>304.8077945143854</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31592,34 +31653,34 @@
         <v>0.06</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0491</v>
+        <v>0.0492</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0713</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2235526828893528</v>
+        <v>-0.2244581244453331</v>
       </c>
       <c r="J5" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K5" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0259294190913224</v>
+        <v>0.02624043776612761</v>
       </c>
       <c r="M5" t="n">
-        <v>7.657349872004557</v>
+        <v>7.647677114681398</v>
       </c>
       <c r="N5" t="n">
-        <v>99.4544072450672</v>
+        <v>99.26648378067684</v>
       </c>
       <c r="O5" t="n">
-        <v>9.97268305146951</v>
+        <v>9.963256685475731</v>
       </c>
       <c r="P5" t="n">
-        <v>304.9227762000351</v>
+        <v>304.9322457981467</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31670,34 +31731,34 @@
         <v>0.045</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0386</v>
+        <v>0.0387</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0501</v>
+        <v>0.0502</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1077411520522331</v>
+        <v>-0.1098975826249803</v>
       </c>
       <c r="J6" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K6" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006724047688109747</v>
+        <v>0.007019215371855791</v>
       </c>
       <c r="M6" t="n">
-        <v>7.292493927770437</v>
+        <v>7.29031920958382</v>
       </c>
       <c r="N6" t="n">
-        <v>90.83829778855105</v>
+        <v>90.71516089561172</v>
       </c>
       <c r="O6" t="n">
-        <v>9.530912746875352</v>
+        <v>9.524450687342117</v>
       </c>
       <c r="P6" t="n">
-        <v>305.3514583228263</v>
+        <v>305.3740114415167</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31754,28 +31815,28 @@
         <v>0.0465</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09058117642513827</v>
+        <v>0.08747531384470864</v>
       </c>
       <c r="J7" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K7" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005108118244348203</v>
+        <v>0.00477897029230856</v>
       </c>
       <c r="M7" t="n">
-        <v>6.899593752141077</v>
+        <v>6.902073150811835</v>
       </c>
       <c r="N7" t="n">
-        <v>84.65594846865679</v>
+        <v>84.60724468484864</v>
       </c>
       <c r="O7" t="n">
-        <v>9.200866723774276</v>
+        <v>9.198219647564883</v>
       </c>
       <c r="P7" t="n">
-        <v>303.8780118774715</v>
+        <v>303.9104946702392</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31826,34 +31887,34 @@
         <v>0.035</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0339</v>
+        <v>0.034</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0385</v>
+        <v>0.0384</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1828238965185147</v>
+        <v>0.1786540242593833</v>
       </c>
       <c r="J8" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K8" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02221240766581489</v>
+        <v>0.02126288865146753</v>
       </c>
       <c r="M8" t="n">
-        <v>6.892777723885335</v>
+        <v>6.900359710946899</v>
       </c>
       <c r="N8" t="n">
-        <v>77.94377379225116</v>
+        <v>78.00469042427351</v>
       </c>
       <c r="O8" t="n">
-        <v>8.828577110285165</v>
+        <v>8.832026405320214</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2955935249755</v>
+        <v>290.3392043071507</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31904,34 +31965,34 @@
         <v>0.045</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0406</v>
+        <v>0.0407</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0539</v>
+        <v>0.054</v>
       </c>
       <c r="I9" t="n">
-        <v>0.324084516540228</v>
+        <v>0.3201923546790388</v>
       </c>
       <c r="J9" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K9" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08220034550238664</v>
+        <v>0.08048642139711848</v>
       </c>
       <c r="M9" t="n">
-        <v>6.247980621262078</v>
+        <v>6.256576903451534</v>
       </c>
       <c r="N9" t="n">
-        <v>62.12371709922778</v>
+        <v>62.18831139033207</v>
       </c>
       <c r="O9" t="n">
-        <v>7.881860002513859</v>
+        <v>7.885956593231545</v>
       </c>
       <c r="P9" t="n">
-        <v>288.6959981717836</v>
+        <v>288.7367045082302</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31985,31 +32046,31 @@
         <v>0.0542</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0696</v>
+        <v>0.0694</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2408152801034525</v>
+        <v>0.2375736770297292</v>
       </c>
       <c r="J10" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K10" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07060253230648184</v>
+        <v>0.06891057662541644</v>
       </c>
       <c r="M10" t="n">
-        <v>4.917537774749946</v>
+        <v>4.92452037613424</v>
       </c>
       <c r="N10" t="n">
-        <v>40.44044333151896</v>
+        <v>40.49053062514255</v>
       </c>
       <c r="O10" t="n">
-        <v>6.359280095381784</v>
+        <v>6.363217002832966</v>
       </c>
       <c r="P10" t="n">
-        <v>293.0171478470936</v>
+        <v>293.051050287447</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32060,34 +32121,34 @@
         <v>0.06</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0545</v>
+        <v>0.0546</v>
       </c>
       <c r="H11" t="n">
         <v>0.0631</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3003080049599166</v>
+        <v>0.2972269990854221</v>
       </c>
       <c r="J11" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K11" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1021908720652427</v>
+        <v>0.1004447907757774</v>
       </c>
       <c r="M11" t="n">
-        <v>5.163898525015327</v>
+        <v>5.170122997307163</v>
       </c>
       <c r="N11" t="n">
-        <v>41.97322602155582</v>
+        <v>42.00763556878839</v>
       </c>
       <c r="O11" t="n">
-        <v>6.478674711818446</v>
+        <v>6.481329768557406</v>
       </c>
       <c r="P11" t="n">
-        <v>300.1587336300261</v>
+        <v>300.1909564579027</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32141,31 +32202,31 @@
         <v>0.0543</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.0699</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4268963201633564</v>
+        <v>0.422611381650797</v>
       </c>
       <c r="J12" t="n">
+        <v>502</v>
+      </c>
+      <c r="K12" t="n">
         <v>501</v>
       </c>
-      <c r="K12" t="n">
-        <v>500</v>
-      </c>
       <c r="L12" t="n">
-        <v>0.2181633396395163</v>
+        <v>0.2143476981244117</v>
       </c>
       <c r="M12" t="n">
-        <v>4.478456423947684</v>
+        <v>4.492342916900792</v>
       </c>
       <c r="N12" t="n">
-        <v>34.6543868895351</v>
+        <v>34.81405170497987</v>
       </c>
       <c r="O12" t="n">
-        <v>5.886797676966238</v>
+        <v>5.90034335483791</v>
       </c>
       <c r="P12" t="n">
-        <v>297.6825897084859</v>
+        <v>297.7273829796923</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32216,34 +32277,34 @@
         <v>0.055</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0477</v>
+        <v>0.0479</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0606</v>
+        <v>0.0607</v>
       </c>
       <c r="I13" t="n">
-        <v>0.363643211517188</v>
+        <v>0.359210757230052</v>
       </c>
       <c r="J13" t="n">
+        <v>502</v>
+      </c>
+      <c r="K13" t="n">
         <v>501</v>
       </c>
-      <c r="K13" t="n">
-        <v>500</v>
-      </c>
       <c r="L13" t="n">
-        <v>0.1993647724620784</v>
+        <v>0.1947856875961901</v>
       </c>
       <c r="M13" t="n">
-        <v>3.965732419593571</v>
+        <v>3.978280787188899</v>
       </c>
       <c r="N13" t="n">
-        <v>28.17840341624541</v>
+        <v>28.36702158905604</v>
       </c>
       <c r="O13" t="n">
-        <v>5.308333393471571</v>
+        <v>5.326069994757489</v>
       </c>
       <c r="P13" t="n">
-        <v>294.3991547079727</v>
+        <v>294.4454900582729</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32294,34 +32355,34 @@
         <v>0.03</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0286</v>
+        <v>0.0287</v>
       </c>
       <c r="H14" t="n">
         <v>0.0305</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3398788571077435</v>
+        <v>0.3344054291475188</v>
       </c>
       <c r="J14" t="n">
+        <v>502</v>
+      </c>
+      <c r="K14" t="n">
         <v>501</v>
       </c>
-      <c r="K14" t="n">
-        <v>500</v>
-      </c>
       <c r="L14" t="n">
-        <v>0.1380052877910195</v>
+        <v>0.1335539864159552</v>
       </c>
       <c r="M14" t="n">
-        <v>4.622022526554178</v>
+        <v>4.636918213775588</v>
       </c>
       <c r="N14" t="n">
-        <v>38.28567538586136</v>
+        <v>38.58263815662436</v>
       </c>
       <c r="O14" t="n">
-        <v>6.187541950230427</v>
+        <v>6.21149242586871</v>
       </c>
       <c r="P14" t="n">
-        <v>300.5930524426285</v>
+        <v>300.6502697731299</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -32359,7 +32420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O502"/>
+  <dimension ref="A1:O503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70989,6 +71050,83 @@
         </is>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:14:52+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>-46.46692160338192,169.7583441355876</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>-46.46753265308745,169.7578767521782</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>-46.46806485685999,169.75728707345542</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>-46.46857941115862,169.75669431525907</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>-46.4691072720653,169.7561646579076</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>-46.46968095304989,169.75567584447572</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>-46.470272708293685,169.75517196435783</t>
+        </is>
+      </c>
+      <c r="I503" t="inlineStr">
+        <is>
+          <t>-46.4708901124576,169.75498051591302</t>
+        </is>
+      </c>
+      <c r="J503" t="inlineStr">
+        <is>
+          <t>-46.47147189412041,169.7547697277374</t>
+        </is>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>-46.47210520184655,169.7545728387948</t>
+        </is>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>-46.47276448335885,169.75439328122923</t>
+        </is>
+      </c>
+      <c r="M503" t="inlineStr">
+        <is>
+          <t>-46.47339809423986,169.75429836646393</t>
+        </is>
+      </c>
+      <c r="N503" t="inlineStr">
+        <is>
+          <t>-46.474011962330984,169.7542905775068</t>
+        </is>
+      </c>
+      <c r="O503" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
